--- a/INTU.xlsx
+++ b/INTU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02EE74-4A13-4104-B956-4601C6276597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43265520-2CB8-4E67-B317-172D4612CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="165" windowWidth="20310" windowHeight="14910" xr2:uid="{F911F33E-D266-41EC-86F2-46FCC30D23BB}"/>
+    <workbookView xWindow="13575" yWindow="1095" windowWidth="31890" windowHeight="19365" activeTab="1" xr2:uid="{F911F33E-D266-41EC-86F2-46FCC30D23BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={B380F975-4FA7-483C-921D-1DFE73D05678}</author>
     <author>tc={833B3E48-D6B7-4F4E-BA46-042963E4E036}</author>
+    <author>tc={706C9F39-7589-416F-AFB2-5F4F692434F0}</author>
   </authors>
   <commentList>
-    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{B380F975-4FA7-483C-921D-1DFE73D05678}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Earlier tax filing deadline</t>
+      </text>
+    </comment>
+    <comment ref="X20" authorId="1" shapeId="0" xr:uid="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,12 +59,20 @@
     12.165-12.300B guidance FQ222 PR</t>
       </text>
     </comment>
+    <comment ref="Y20" authorId="2" shapeId="0" xr:uid="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q422 guidance: 14.485-14.700B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -218,18 +236,12 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Q122</t>
-  </si>
-  <si>
     <t>CEO: Sasan Goodarzi</t>
   </si>
   <si>
     <t>Organic</t>
   </si>
   <si>
-    <t>Online Ecosystem</t>
-  </si>
-  <si>
     <t>Online Services</t>
   </si>
   <si>
@@ -306,6 +318,48 @@
   </si>
   <si>
     <t>FQ420</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>FQ123</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>Small Business</t>
+  </si>
+  <si>
+    <t>QuickBooks Online</t>
+  </si>
+  <si>
+    <t>QuickBooks Desktop</t>
+  </si>
+  <si>
+    <t>Desktop Services</t>
+  </si>
+  <si>
+    <t>ProConnect</t>
+  </si>
+  <si>
+    <t>MailChimp (closed 11/1/2021) - 12.0B</t>
+  </si>
+  <si>
+    <t>Credit Karma - 8.1B</t>
   </si>
 </sst>
 </file>
@@ -313,7 +367,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -369,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -389,8 +443,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -415,15 +474,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -465,16 +524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8523</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>63165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8523</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>90236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -489,8 +548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="133350"/>
-          <a:ext cx="0" cy="8934450"/>
+          <a:off x="8941970" y="63165"/>
+          <a:ext cx="0" cy="8850229"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -819,8 +878,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W12" dT="2022-07-18T13:17:32.64" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
+  <threadedComment ref="M20" dT="2022-09-26T02:35:42.18" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{B380F975-4FA7-483C-921D-1DFE73D05678}">
+    <text>Earlier tax filing deadline</text>
+  </threadedComment>
+  <threadedComment ref="X20" dT="2022-07-18T13:17:32.64" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
     <text>12.165-12.300B guidance FQ222 PR</text>
+  </threadedComment>
+  <threadedComment ref="Y20" dT="2022-09-26T03:05:09.65" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
+    <text>Q422 guidance: 14.485-14.700B</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -829,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F1851-E36A-4E12-9896-01ED9C75784D}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,8 +907,8 @@
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>392.96</v>
+      <c r="L2" s="11">
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -854,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>286</v>
+        <v>281.86987900000003</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -869,12 +934,12 @@
       </c>
       <c r="L4" s="2">
         <f>L2*L3</f>
-        <v>112386.56</v>
+        <v>111056.73232600001</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -883,12 +948,12 @@
         <v>4002</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -897,7 +962,7 @@
         <v>6853</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -906,12 +971,12 @@
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>115237.56</v>
+        <v>113907.73232600001</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -926,29 +991,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314521E4-F7EC-48A6-9D04-C6C2933ADBCA}">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="8.5703125" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -979,23 +1046,39 @@
       <c r="N2" s="10">
         <v>44773</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="O2" s="9">
+        <f>+N2+92</f>
+        <v>44865</v>
+      </c>
+      <c r="P2" s="9">
+        <f>+O2+92</f>
+        <v>44957</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>+P2+89</f>
+        <v>45046</v>
+      </c>
+      <c r="R2" s="9">
+        <f>+Q2+92</f>
+        <v>45138</v>
+      </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1021,1157 +1104,2991 @@
       <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="U3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>418</v>
-      </c>
-      <c r="L4" s="3">
-        <v>444</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <f>SUM(G5:G8)</f>
+        <v>1181</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(H5:H8)</f>
+        <v>1078</v>
+      </c>
+      <c r="I4" s="6">
+        <f>SUM(I5:I8)</f>
+        <v>1177</v>
+      </c>
+      <c r="J4" s="6">
+        <f>SUM(J5:J8)</f>
+        <v>1252</v>
+      </c>
+      <c r="K4" s="6">
+        <f>SUM(K5:K8)</f>
+        <v>1443</v>
+      </c>
+      <c r="L4" s="6">
+        <f>SUM(L5:L8)</f>
+        <v>1581</v>
+      </c>
+      <c r="M4" s="6">
+        <f>SUM(M5:M8)</f>
+        <v>1667</v>
+      </c>
+      <c r="N4" s="6">
+        <f>SUM(N5:N8)</f>
+        <v>1769</v>
+      </c>
+      <c r="O4" s="6">
+        <f>SUM(O5:O8)</f>
+        <v>1659.4499999999998</v>
+      </c>
+      <c r="P4" s="6">
+        <f>SUM(P5:P8)</f>
+        <v>1818.1499999999996</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>SUM(Q5:Q8)</f>
+        <v>1917.0499999999997</v>
+      </c>
+      <c r="R4" s="6">
+        <f>SUM(R5:R8)</f>
+        <v>2034.35</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6">
+        <f>SUM(V5:V8)</f>
+        <v>4050</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" ref="W4:Z4" si="0">SUM(W5:W8)</f>
+        <v>4688</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="0"/>
+        <v>6460</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="0"/>
+        <v>7428.9999999999982</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="0"/>
+        <v>7800.4499999999989</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" ref="AA4" si="1">SUM(AA5:AA8)</f>
+        <v>8190.4724999999989</v>
+      </c>
+      <c r="AB4" s="6">
+        <f t="shared" ref="AB4" si="2">SUM(AB5:AB8)</f>
+        <v>8599.9961249999997</v>
+      </c>
+      <c r="AC4" s="6">
+        <f t="shared" ref="AC4" si="3">SUM(AC5:AC8)</f>
+        <v>9029.9959312499996</v>
+      </c>
+      <c r="AD4" s="6">
+        <f t="shared" ref="AD4" si="4">SUM(AD5:AD8)</f>
+        <v>9481.4957278125003</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" ref="AE4" si="5">SUM(AE5:AE8)</f>
+        <v>9955.5705142031256</v>
+      </c>
+      <c r="AF4" s="6">
+        <f t="shared" ref="AF4" si="6">SUM(AF5:AF8)</f>
+        <v>10453.349039913284</v>
+      </c>
+      <c r="AG4" s="6">
+        <f t="shared" ref="AG4" si="7">SUM(AG5:AG8)</f>
+        <v>10976.016491908948</v>
+      </c>
+      <c r="AH4" s="6">
+        <f t="shared" ref="AH4" si="8">SUM(AH5:AH8)</f>
+        <v>11524.817316504395</v>
+      </c>
+      <c r="AI4" s="6">
+        <f t="shared" ref="AI4" si="9">SUM(AI5:AI8)</f>
+        <v>12101.058182329616</v>
+      </c>
+      <c r="AJ4" s="6">
+        <f t="shared" ref="AJ4" si="10">SUM(AJ5:AJ8)</f>
+        <v>12706.111091446099</v>
+      </c>
+      <c r="AK4" s="6">
+        <f t="shared" ref="AK4" si="11">SUM(AK5:AK8)</f>
+        <v>13341.416646018404</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="G5" s="3">
+        <v>392</v>
+      </c>
+      <c r="H5" s="3">
+        <v>404</v>
+      </c>
+      <c r="I5" s="3">
+        <v>437</v>
+      </c>
+      <c r="J5" s="3">
+        <f>W5-I5-H5-G5</f>
+        <v>466</v>
+      </c>
       <c r="K5" s="3">
-        <v>845</v>
+        <v>519</v>
       </c>
       <c r="L5" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="M5" s="3">
+        <v>578</v>
+      </c>
+      <c r="N5" s="3">
+        <f>+X5-M5-L5-K5</f>
+        <v>623</v>
+      </c>
+      <c r="O5" s="3">
+        <f>+K5*1.15</f>
+        <v>596.84999999999991</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P8" si="12">+L5*1.15</f>
+        <v>629.04999999999995</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q8" si="13">+M5*1.15</f>
+        <v>664.69999999999993</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R8" si="14">+N5*1.15</f>
+        <v>716.44999999999993</v>
+      </c>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="3">
+        <v>1354</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1699</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2267</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>SUM(O5:R5)</f>
+        <v>2607.0499999999997</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>+Y5*1.05</f>
+        <v>2737.4024999999997</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5:AK5" si="15">+Z5*1.05</f>
+        <v>2874.2726249999996</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="15"/>
+        <v>3017.9862562499998</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="15"/>
+        <v>3168.8855690625001</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="15"/>
+        <v>3327.3298475156253</v>
+      </c>
+      <c r="AE5" s="3">
+        <f t="shared" si="15"/>
+        <v>3493.6963398914068</v>
+      </c>
+      <c r="AF5" s="3">
+        <f t="shared" si="15"/>
+        <v>3668.3811568859774</v>
+      </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="15"/>
+        <v>3851.8002147302764</v>
+      </c>
+      <c r="AH5" s="3">
+        <f t="shared" si="15"/>
+        <v>4044.3902254667905</v>
+      </c>
+      <c r="AI5" s="3">
+        <f t="shared" si="15"/>
+        <v>4246.6097367401298</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="15"/>
+        <v>4458.9402235771367</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="15"/>
+        <v>4681.8872347559936</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="3">
+        <v>229</v>
+      </c>
+      <c r="H6" s="3">
+        <v>240</v>
+      </c>
+      <c r="I6" s="3">
+        <v>278</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J8" si="16">W6-I6-H6-G6</f>
+        <v>304</v>
+      </c>
+      <c r="K6" s="3">
+        <v>326</v>
+      </c>
       <c r="L6" s="3">
-        <v>240</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>574</v>
+      </c>
+      <c r="M6" s="3">
+        <v>614</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6:N8" si="17">+X6-M6-L6-K6</f>
+        <v>657</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6:O8" si="18">+K6*1.15</f>
+        <v>374.9</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="12"/>
+        <v>660.09999999999991</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="13"/>
+        <v>706.09999999999991</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="14"/>
+        <v>755.55</v>
+      </c>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="3">
+        <v>828</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1051</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2171</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" ref="Y6:Y12" si="19">SUM(O6:R6)</f>
+        <v>2496.6499999999996</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" ref="Z6:AK11" si="20">+Y6*1.05</f>
+        <v>2621.4824999999996</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="20"/>
+        <v>2752.5566249999997</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="20"/>
+        <v>2890.18445625</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="20"/>
+        <v>3034.6936790625</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="20"/>
+        <v>3186.4283630156251</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" si="20"/>
+        <v>3345.7497811664066</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" si="20"/>
+        <v>3513.0372702247269</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="20"/>
+        <v>3688.6891337359634</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="20"/>
+        <v>3873.1235904227619</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="20"/>
+        <v>4066.7797699439002</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="20"/>
+        <v>4270.1187584410955</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="20"/>
+        <v>4483.6246963631502</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="G7" s="3">
+        <v>241</v>
+      </c>
+      <c r="H7" s="3">
+        <v>160</v>
+      </c>
+      <c r="I7" s="3">
+        <v>193</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="16"/>
+        <v>195</v>
+      </c>
+      <c r="K7" s="3">
+        <v>267</v>
+      </c>
       <c r="L7" s="3">
-        <v>574</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="M7" s="3">
+        <v>201</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="17"/>
+        <v>214</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="18"/>
+        <v>307.04999999999995</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="12"/>
+        <v>194.35</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="13"/>
+        <v>231.14999999999998</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="14"/>
+        <v>246.1</v>
+      </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="3">
+        <v>755</v>
+      </c>
+      <c r="W7" s="3">
+        <v>789</v>
+      </c>
+      <c r="X7" s="3">
+        <v>851</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="19"/>
+        <v>978.65</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="20"/>
+        <v>1027.5825</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="20"/>
+        <v>1078.9616250000001</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="20"/>
+        <v>1132.9097062500002</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="20"/>
+        <v>1189.5551915625003</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="20"/>
+        <v>1249.0329511406253</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="20"/>
+        <v>1311.4845986976566</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" si="20"/>
+        <v>1377.0588286325394</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="20"/>
+        <v>1445.9117700641664</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" si="20"/>
+        <v>1518.2073585673747</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="20"/>
+        <v>1594.1177264957435</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="20"/>
+        <v>1673.8236128205308</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="20"/>
+        <v>1757.5147934615575</v>
+      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+    </row>
+    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="3">
+        <v>319</v>
+      </c>
+      <c r="H8" s="3">
+        <v>274</v>
+      </c>
+      <c r="I8" s="3">
+        <v>269</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="16"/>
+        <v>287</v>
+      </c>
       <c r="K8" s="3">
+        <v>331</v>
+      </c>
+      <c r="L8" s="3">
+        <v>291</v>
+      </c>
+      <c r="M8" s="3">
+        <v>274</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="17"/>
+        <v>275</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="18"/>
+        <v>380.65</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="12"/>
+        <v>334.65</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="13"/>
+        <v>315.09999999999997</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="14"/>
+        <v>316.25</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
+        <v>1113</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1149</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1171</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="19"/>
+        <v>1346.6499999999999</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="20"/>
+        <v>1413.9824999999998</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="20"/>
+        <v>1484.6816249999999</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="20"/>
+        <v>1558.9157062500001</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="20"/>
+        <v>1636.8614915625001</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="20"/>
+        <v>1718.704566140625</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="20"/>
+        <v>1804.6397944476564</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" si="20"/>
+        <v>1894.8717841700393</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="20"/>
+        <v>1989.6153733785413</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="20"/>
+        <v>2089.0961420474687</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="20"/>
+        <v>2193.5509491498424</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="20"/>
+        <v>2303.2284966073348</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="20"/>
+        <v>2418.3899214377016</v>
+      </c>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>119</v>
+      </c>
+      <c r="H10" s="13">
+        <v>147</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2445</v>
+      </c>
+      <c r="J10" s="13">
+        <v>852</v>
+      </c>
+      <c r="K10" s="13">
         <v>120</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L10" s="13">
         <v>411</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>294</v>
-      </c>
-      <c r="G10" s="3">
-        <v>367</v>
-      </c>
-      <c r="H10" s="3">
-        <v>495</v>
-      </c>
-      <c r="I10" s="3">
-        <v>533</v>
-      </c>
-      <c r="J10" s="3">
-        <v>303</v>
-      </c>
-      <c r="K10" s="3">
-        <v>397</v>
-      </c>
-      <c r="L10" s="3">
-        <v>525</v>
-      </c>
-      <c r="M10" s="3">
-        <v>554</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3">
-        <f>SUM(K10:N10)</f>
-        <v>1476</v>
-      </c>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="13">
+        <v>3239</v>
+      </c>
+      <c r="N10" s="13">
+        <v>145</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10:O12" si="21">+K10*1.15</f>
+        <v>138</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10:P12" si="22">+L10*1.15</f>
+        <v>472.65</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10:Q12" si="23">+M10*1.15</f>
+        <v>3724.85</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10:R12" si="24">+N10*1.15</f>
+        <v>166.75</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13">
+        <v>3136</v>
+      </c>
+      <c r="W10" s="13">
+        <v>3563</v>
+      </c>
+      <c r="X10" s="13">
+        <v>3915</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="19"/>
+        <v>4502.25</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="20"/>
+        <v>4727.3625000000002</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="20"/>
+        <v>4963.7306250000001</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="20"/>
+        <v>5211.9171562500005</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="20"/>
+        <v>5472.5130140625006</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="20"/>
+        <v>5746.1386647656254</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="20"/>
+        <v>6033.4455980039065</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="20"/>
+        <v>6335.117877904102</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="20"/>
+        <v>6651.8737717993072</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="20"/>
+        <v>6984.4674603892727</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="20"/>
+        <v>7333.6908334087366</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="20"/>
+        <v>7700.3753750791739</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="20"/>
+        <v>8085.3941438331331</v>
+      </c>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>1522</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1081</v>
+        <v>144</v>
       </c>
       <c r="I11" s="3">
-        <v>3640</v>
+        <v>316</v>
       </c>
       <c r="J11" s="3">
-        <v>2258</v>
+        <f t="shared" ref="J11:J12" si="25">W11-I11-H11-G11</f>
+        <v>405</v>
       </c>
       <c r="K11" s="3">
-        <v>1610</v>
+        <v>418</v>
       </c>
       <c r="L11" s="3">
-        <v>2148</v>
+        <v>444</v>
       </c>
       <c r="M11" s="3">
-        <v>5078</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="U11" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11:N12" si="26">+X11-M11-L11-K11</f>
+        <v>475</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="21"/>
+        <v>480.7</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="22"/>
+        <v>510.59999999999997</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="23"/>
+        <v>538.19999999999993</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="24"/>
+        <v>546.25</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3">
-        <f>SUM(K11:N11)</f>
-        <v>8836</v>
-      </c>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:L12" si="0">F10+F11</f>
-        <v>1816</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>1323</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>1576</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>4173</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="0"/>
-        <v>2561</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="0"/>
-        <v>2673</v>
-      </c>
-      <c r="M12" s="6">
-        <f>M10+M11</f>
-        <v>5632</v>
-      </c>
-      <c r="N12" s="6">
-        <f>12300-M12-L12-K12</f>
-        <v>1988</v>
-      </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6">
-        <f>W10+W11</f>
-        <v>10312</v>
-      </c>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1">
-        <f>317</f>
-        <v>317</v>
-      </c>
-      <c r="G13" s="1">
-        <f>15+234</f>
-        <v>249</v>
-      </c>
-      <c r="H13" s="1">
-        <v>353</v>
-      </c>
-      <c r="I13" s="1">
-        <f>16+565</f>
-        <v>581</v>
-      </c>
-      <c r="J13" s="1">
-        <f>16+434</f>
-        <v>450</v>
-      </c>
-      <c r="K13" s="1">
-        <f>15+387</f>
-        <v>402</v>
-      </c>
-      <c r="L13" s="1">
-        <v>523</v>
-      </c>
-      <c r="M13" s="1">
-        <f>18+764</f>
-        <v>782</v>
-      </c>
-      <c r="W13" s="3">
-        <f>SUM(K13:N13)</f>
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+        <v>865</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1805</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="19"/>
+        <v>2075.75</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ref="Z11:AK11" si="27">+Y11*1.05</f>
+        <v>2179.5374999999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="27"/>
+        <v>2288.5143750000002</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" si="27"/>
+        <v>2402.9400937500004</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" si="27"/>
+        <v>2523.0870984375006</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="27"/>
+        <v>2649.2414533593756</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="27"/>
+        <v>2781.7035260273447</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" si="27"/>
+        <v>2920.7887023287121</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="27"/>
+        <v>3066.8281374451481</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" si="27"/>
+        <v>3220.1695443174058</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="27"/>
+        <v>3381.178021533276</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="27"/>
+        <v>3550.2369226099399</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="27"/>
+        <v>3727.7487687404373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>207</v>
+      </c>
+      <c r="I12" s="3">
+        <v>235</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="K12" s="3">
+        <v>26</v>
+      </c>
+      <c r="L12" s="3">
+        <v>237</v>
+      </c>
+      <c r="M12" s="3">
+        <v>258</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="26"/>
         <v>25</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="21"/>
+        <v>29.9</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="22"/>
+        <v>272.54999999999995</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="23"/>
+        <v>296.7</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="24"/>
+        <v>28.749999999999996</v>
+      </c>
+      <c r="V12" s="3">
+        <v>493</v>
+      </c>
+      <c r="W12" s="3">
+        <v>517</v>
+      </c>
+      <c r="X12" s="3">
+        <v>546</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="19"/>
+        <v>627.89999999999986</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:AK12" si="28">+Y12*1.05</f>
+        <v>659.29499999999985</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>+Z12*1.05</f>
+        <v>692.25974999999983</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>+AA12*1.05</f>
+        <v>726.87273749999986</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" si="28"/>
+        <v>763.21637437499987</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="28"/>
+        <v>801.37719309374995</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="28"/>
+        <v>841.44605274843752</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="28"/>
+        <v>883.51835538585942</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="28"/>
+        <v>927.69427315515247</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="28"/>
+        <v>974.0789868129101</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="28"/>
+        <v>1022.7829361535556</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="28"/>
+        <v>1073.9220829612334</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="28"/>
+        <v>1127.6181871092951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <f>F12-F13</f>
-        <v>1499</v>
-      </c>
-      <c r="G14" s="3">
-        <f>G12-G13</f>
-        <v>1074</v>
-      </c>
-      <c r="H14" s="3">
-        <f>H12-H13</f>
-        <v>1223</v>
-      </c>
-      <c r="I14" s="3">
-        <f>I12-I13</f>
-        <v>3592</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14:M14" si="1">J12-J13</f>
-        <v>2111</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="1"/>
-        <v>1605</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3">
-        <f t="shared" si="1"/>
-        <v>2150</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="1"/>
-        <v>4850</v>
-      </c>
-      <c r="W14" s="3">
-        <f>W12-W13</f>
-        <v>8605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>265</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>424</v>
-      </c>
-      <c r="G15" s="3">
-        <v>362</v>
-      </c>
-      <c r="H15" s="3">
-        <v>580</v>
-      </c>
-      <c r="I15" s="3">
-        <v>857</v>
-      </c>
-      <c r="J15" s="3">
-        <v>845</v>
-      </c>
-      <c r="K15" s="3">
-        <v>550</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3">
-        <v>942</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1227</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3">
-        <f t="shared" ref="W15:W17" si="2">SUM(K15:N15)</f>
-        <v>2719</v>
-      </c>
+      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>393</v>
-      </c>
-      <c r="G16" s="3">
-        <v>325</v>
-      </c>
-      <c r="H16" s="3">
-        <v>368</v>
-      </c>
-      <c r="I16" s="3">
-        <v>464</v>
-      </c>
-      <c r="J16" s="3">
-        <v>521</v>
-      </c>
-      <c r="K16" s="3">
-        <v>530</v>
-      </c>
-      <c r="L16" s="3">
-        <v>590</v>
-      </c>
-      <c r="M16" s="3">
-        <v>600</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3">
-        <f t="shared" si="2"/>
-        <v>1720</v>
-      </c>
+      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>193</v>
-      </c>
-      <c r="G17" s="3">
-        <v>169</v>
-      </c>
-      <c r="H17" s="3">
-        <v>250</v>
-      </c>
-      <c r="I17" s="3">
-        <v>289</v>
-      </c>
-      <c r="J17" s="3">
-        <v>274</v>
-      </c>
-      <c r="K17" s="3">
-        <v>262</v>
-      </c>
-      <c r="L17" s="3">
-        <v>399</v>
-      </c>
-      <c r="M17" s="3">
-        <v>465</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3">
-        <f t="shared" si="2"/>
-        <v>1126</v>
-      </c>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="18" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <f t="shared" ref="F18:L18" si="3">SUM(F15:F17)</f>
-        <v>1010</v>
+        <v>294</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="3"/>
-        <v>856</v>
+        <v>367</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>1198</v>
+        <v>495</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>1610</v>
+        <v>533</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="3"/>
-        <v>1640</v>
+        <v>303</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>1342</v>
+        <v>397</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
-        <v>1931</v>
+        <v>525</v>
       </c>
       <c r="M18" s="3">
-        <f>SUM(M15:M17)</f>
-        <v>2292</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="U18" s="3"/>
+        <v>554</v>
+      </c>
+      <c r="N18" s="3">
+        <v>271</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3">
-        <f>SUM(W15:W17)</f>
-        <v>5565</v>
-      </c>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(G18:J18)</f>
+        <v>1698</v>
+      </c>
+      <c r="X18" s="3">
+        <f>SUM(K18:N18)</f>
+        <v>1747</v>
+      </c>
+      <c r="Y18" s="3">
+        <f>SUM(O18:R18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <f t="shared" ref="F19:L19" si="4">F14-F18</f>
-        <v>489</v>
+        <v>1522</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="4"/>
-        <v>218</v>
+        <v>956</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <v>1081</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="4"/>
-        <v>1982</v>
+        <v>3640</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="4"/>
-        <v>471</v>
+        <v>2258</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="4"/>
-        <v>263</v>
+        <v>1610</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="4"/>
-        <v>219</v>
+        <v>2148</v>
       </c>
       <c r="M19" s="3">
-        <f>M14-M18</f>
-        <v>2558</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="U19" s="3"/>
+        <v>5078</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2143</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3">
-        <f>W14-W18</f>
-        <v>3040</v>
-      </c>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1">
-        <f>-7+10</f>
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <f>-8+9</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <f>-7+54</f>
-        <v>47</v>
-      </c>
-      <c r="I20" s="1">
-        <f>-7+14</f>
-        <v>7</v>
-      </c>
-      <c r="J20" s="1">
-        <f>-7+8</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <f>-7+50</f>
-        <v>43</v>
-      </c>
-      <c r="L20" s="1">
-        <f>-21-5</f>
-        <v>-26</v>
-      </c>
-      <c r="M20" s="1">
-        <v>-22</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20:W22" si="5">SUM(K20:N20)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21:L21" si="6">F19+F20</f>
-        <v>492</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="6"/>
-        <v>219</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="6"/>
-        <v>1989</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="6"/>
-        <v>472</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="6"/>
-        <v>306</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="6"/>
-        <v>193</v>
-      </c>
-      <c r="M21" s="3">
-        <f>M19+M20</f>
-        <v>2536</v>
+        <f>SUM(G19:J19)</f>
+        <v>7935</v>
+      </c>
+      <c r="X19" s="3">
+        <f>SUM(K19:N19)</f>
+        <v>10979</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>SUM(O19:R19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:L20" si="29">F18+F19</f>
+        <v>1816</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="29"/>
+        <v>1323</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="29"/>
+        <v>1576</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="29"/>
+        <v>4173</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="29"/>
+        <v>2561</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="29"/>
+        <v>2007</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="29"/>
+        <v>2673</v>
+      </c>
+      <c r="M20" s="6">
+        <f>M18+M19</f>
+        <v>5632</v>
+      </c>
+      <c r="N20" s="6">
+        <f>N18+N19</f>
+        <v>2414</v>
+      </c>
+      <c r="O20" s="6">
+        <f>+O12+O11+O10+O4</f>
+        <v>2308.0499999999997</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" ref="P20:R20" si="30">+P12+P11+P10+P4</f>
+        <v>3073.9499999999994</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="30"/>
+        <v>6476.7999999999993</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="30"/>
+        <v>2776.1</v>
+      </c>
+      <c r="V20" s="6">
+        <v>7679</v>
+      </c>
+      <c r="W20" s="6">
+        <f>+W18+W19</f>
+        <v>9633</v>
+      </c>
+      <c r="X20" s="6">
+        <f>X18+X19</f>
+        <v>12726</v>
+      </c>
+      <c r="Y20" s="6">
+        <f>+Y12+Y11+Y10+Y4</f>
+        <v>14634.899999999998</v>
+      </c>
+      <c r="Z20" s="6">
+        <f>+Z10+Z11+Z12+Z4</f>
+        <v>15366.644999999999</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" ref="AA20:AK20" si="31">+AA10+AA11+AA12+AA4</f>
+        <v>16134.97725</v>
+      </c>
+      <c r="AB20" s="6">
+        <f t="shared" si="31"/>
+        <v>16941.7261125</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="31"/>
+        <v>17788.812418125002</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="31"/>
+        <v>18678.253039031253</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" si="31"/>
+        <v>19612.165690982816</v>
+      </c>
+      <c r="AF20" s="6">
+        <f t="shared" si="31"/>
+        <v>20592.773975531956</v>
+      </c>
+      <c r="AG20" s="6">
+        <f t="shared" si="31"/>
+        <v>21622.412674308554</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" si="31"/>
+        <v>22703.533308023983</v>
+      </c>
+      <c r="AI20" s="6">
+        <f t="shared" si="31"/>
+        <v>23838.709973425182</v>
+      </c>
+      <c r="AJ20" s="6">
+        <f t="shared" si="31"/>
+        <v>25030.645472096447</v>
+      </c>
+      <c r="AK20" s="6">
+        <f t="shared" si="31"/>
+        <v>26282.177745701272</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <f>317</f>
+        <v>317</v>
+      </c>
+      <c r="G21" s="1">
+        <f>15+234</f>
+        <v>249</v>
+      </c>
+      <c r="H21" s="1">
+        <v>353</v>
+      </c>
+      <c r="I21" s="1">
+        <f>16+565</f>
+        <v>581</v>
+      </c>
+      <c r="J21" s="1">
+        <f>16+434</f>
+        <v>450</v>
+      </c>
+      <c r="K21" s="1">
+        <f>15+387</f>
+        <v>402</v>
+      </c>
+      <c r="L21" s="1">
+        <v>523</v>
+      </c>
+      <c r="M21" s="1">
+        <f>18+764</f>
+        <v>782</v>
+      </c>
+      <c r="N21" s="1">
+        <f>16+543</f>
+        <v>559</v>
+      </c>
+      <c r="O21" s="2">
+        <f>+O20-O22</f>
+        <v>507.77099999999996</v>
+      </c>
+      <c r="P21" s="2">
+        <f>+P20-P22</f>
+        <v>676.26899999999978</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>+Q20-Q22</f>
+        <v>1424.8959999999997</v>
+      </c>
+      <c r="R21" s="2">
+        <f>+R20-R22</f>
+        <v>610.74199999999973</v>
       </c>
       <c r="W21" s="3">
-        <f>W19+W20</f>
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>457</v>
-      </c>
-      <c r="J22" s="1">
-        <v>23</v>
-      </c>
-      <c r="K22" s="1">
-        <v>10</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-70</v>
-      </c>
-      <c r="M22" s="1">
-        <v>579</v>
+        <f>SUM(G21:J21)</f>
+        <v>1633</v>
+      </c>
+      <c r="X21" s="3">
+        <f>SUM(K21:N21)</f>
+        <v>2266</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>SUM(O21:R21)</f>
+        <v>3219.6779999999994</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>+Z20-Z22</f>
+        <v>2612.3296499999997</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" ref="AA21:AK21" si="32">+AA20-AA22</f>
+        <v>2742.9461325000011</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="32"/>
+        <v>2880.0934391250012</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="32"/>
+        <v>3024.0981110812518</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="32"/>
+        <v>3175.3030166353146</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="32"/>
+        <v>3334.0681674670795</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="32"/>
+        <v>3500.7715758404338</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="32"/>
+        <v>3675.8101546324542</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="32"/>
+        <v>3859.6006623640787</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="32"/>
+        <v>4052.5806954822838</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="32"/>
+        <v>4255.2097302563961</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="32"/>
+        <v>4467.9702167692158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <f>F20-F21</f>
+        <v>1499</v>
+      </c>
+      <c r="G22" s="3">
+        <f>G20-G21</f>
+        <v>1074</v>
+      </c>
+      <c r="H22" s="3">
+        <f>H20-H21</f>
+        <v>1223</v>
+      </c>
+      <c r="I22" s="3">
+        <f>I20-I21</f>
+        <v>3592</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" ref="J22:M22" si="33">J20-J21</f>
+        <v>2111</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="33"/>
+        <v>1605</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="33"/>
+        <v>2150</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="33"/>
+        <v>4850</v>
+      </c>
+      <c r="N22" s="3">
+        <f>+N20-N21</f>
+        <v>1855</v>
+      </c>
+      <c r="O22" s="3">
+        <f>+O20*0.78</f>
+        <v>1800.2789999999998</v>
+      </c>
+      <c r="P22" s="3">
+        <f>+P20*0.78</f>
+        <v>2397.6809999999996</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>+Q20*0.78</f>
+        <v>5051.9039999999995</v>
+      </c>
+      <c r="R22" s="3">
+        <f>+R20*0.78</f>
+        <v>2165.3580000000002</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="5"/>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+        <f>+W20-W21</f>
+        <v>8000</v>
+      </c>
+      <c r="X22" s="3">
+        <f>X20-X21</f>
+        <v>10460</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>+Y20-Y21</f>
+        <v>11415.221999999998</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>+Z20*0.83</f>
+        <v>12754.315349999999</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AL22" si="34">+AA20*0.83</f>
+        <v>13392.031117499999</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="34"/>
+        <v>14061.632673374999</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="34"/>
+        <v>14764.714307043751</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" si="34"/>
+        <v>15502.950022395939</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="34"/>
+        <v>16278.097523515737</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="34"/>
+        <v>17092.002399691522</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="34"/>
+        <v>17946.6025196761</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="34"/>
+        <v>18843.932645659905</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="34"/>
+        <v>19786.129277942899</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="34"/>
+        <v>20775.43574184005</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="34"/>
+        <v>21814.207528932056</v>
+      </c>
+      <c r="AL22" s="2"/>
+    </row>
+    <row r="23" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <f t="shared" ref="F23:L23" si="7">F21-F22</f>
+        <v>424</v>
+      </c>
+      <c r="G23" s="3">
+        <v>362</v>
+      </c>
+      <c r="H23" s="3">
+        <v>580</v>
+      </c>
+      <c r="I23" s="3">
+        <v>857</v>
+      </c>
+      <c r="J23" s="3">
+        <v>845</v>
+      </c>
+      <c r="K23" s="3">
+        <v>550</v>
+      </c>
+      <c r="L23" s="3">
+        <v>942</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1227</v>
+      </c>
+      <c r="N23" s="3">
+        <v>807</v>
+      </c>
+      <c r="O23" s="2">
+        <f>+K23*1.05</f>
+        <v>577.5</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" ref="P23:P25" si="35">+L23*1.05</f>
+        <v>989.1</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" ref="Q23:Q25" si="36">+M23*1.05</f>
+        <v>1288.3500000000001</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" ref="R23:R25" si="37">+N23*1.05</f>
+        <v>847.35</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3">
+        <f>SUM(G23:J23)</f>
+        <v>2644</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" ref="X23:X25" si="38">SUM(K23:N23)</f>
+        <v>3526</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" ref="Y23:Y25" si="39">SUM(O23:R23)</f>
+        <v>3702.2999999999997</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>+Y23*1.01</f>
+        <v>3739.3229999999999</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" ref="AA23:AK23" si="40">+Z23*1.01</f>
+        <v>3776.71623</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="40"/>
+        <v>3814.4833923000001</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="40"/>
+        <v>3852.6282262230002</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="40"/>
+        <v>3891.1545084852301</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" si="40"/>
+        <v>3930.0660535700822</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="40"/>
+        <v>3969.3667141057831</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="40"/>
+        <v>4009.0603812468412</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="40"/>
+        <v>4049.1509850593097</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="40"/>
+        <v>4089.6424949099028</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="40"/>
+        <v>4130.5389198590019</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="40"/>
+        <v>4171.844309057592</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>393</v>
+      </c>
+      <c r="G24" s="3">
+        <v>325</v>
+      </c>
+      <c r="H24" s="3">
+        <v>368</v>
+      </c>
+      <c r="I24" s="3">
+        <v>464</v>
+      </c>
+      <c r="J24" s="3">
+        <v>521</v>
+      </c>
+      <c r="K24" s="3">
+        <v>530</v>
+      </c>
+      <c r="L24" s="3">
+        <v>590</v>
+      </c>
+      <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>627</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" ref="O24:O25" si="41">+K24*1.05</f>
+        <v>556.5</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="35"/>
+        <v>619.5</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="36"/>
+        <v>630</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="37"/>
+        <v>658.35</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
+        <f>SUM(G24:J24)</f>
+        <v>1678</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="38"/>
+        <v>2347</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="39"/>
+        <v>2464.35</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" ref="Z24:AK24" si="42">+Y24*1.01</f>
+        <v>2488.9935</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="42"/>
+        <v>2513.8834350000002</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="42"/>
+        <v>2539.02226935</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="42"/>
+        <v>2564.4124920435002</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="42"/>
+        <v>2590.0566169639351</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="42"/>
+        <v>2615.9571831335743</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="42"/>
+        <v>2642.1167549649099</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="42"/>
+        <v>2668.5379225145589</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="42"/>
+        <v>2695.2233017397043</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="42"/>
+        <v>2722.1755347571016</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="42"/>
+        <v>2749.3972901046727</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="42"/>
+        <v>2776.8912630057193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>193</v>
+      </c>
+      <c r="G25" s="3">
+        <v>169</v>
+      </c>
+      <c r="H25" s="3">
+        <v>250</v>
+      </c>
+      <c r="I25" s="3">
+        <v>289</v>
+      </c>
+      <c r="J25" s="3">
+        <v>274</v>
+      </c>
+      <c r="K25" s="3">
+        <v>262</v>
+      </c>
+      <c r="L25" s="3">
+        <v>399</v>
+      </c>
+      <c r="M25" s="3">
+        <v>465</v>
+      </c>
+      <c r="N25" s="3">
+        <v>334</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="41"/>
+        <v>275.10000000000002</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="35"/>
+        <v>418.95000000000005</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="36"/>
+        <v>488.25</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="37"/>
+        <v>350.7</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3">
+        <f>SUM(G25:J25)</f>
+        <v>982</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="38"/>
+        <v>1460</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="39"/>
+        <v>1533.0000000000002</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" ref="Z25:AK25" si="43">+Y25*1.01</f>
+        <v>1548.3300000000002</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="43"/>
+        <v>1563.8133000000003</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="43"/>
+        <v>1579.4514330000002</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="43"/>
+        <v>1595.2459473300003</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" si="43"/>
+        <v>1611.1984068033003</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="43"/>
+        <v>1627.3103908713333</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="43"/>
+        <v>1643.5834947800467</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="43"/>
+        <v>1660.0193297278472</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="43"/>
+        <v>1676.6195230251258</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="43"/>
+        <v>1693.385718255377</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="43"/>
+        <v>1710.3195754379308</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="43"/>
+        <v>1727.4227711923102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:L26" si="44">SUM(F23:F25)</f>
+        <v>1010</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="44"/>
+        <v>856</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="44"/>
+        <v>1198</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="44"/>
+        <v>1610</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="44"/>
+        <v>1640</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="44"/>
+        <v>1342</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="44"/>
+        <v>1931</v>
+      </c>
+      <c r="M26" s="3">
+        <f>SUM(M23:M25)</f>
+        <v>2292</v>
+      </c>
+      <c r="N26" s="3">
+        <f>SUM(N23:N25)</f>
+        <v>1768</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26:R26" si="45">SUM(O23:O25)</f>
+        <v>1409.1</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="45"/>
+        <v>2027.55</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="45"/>
+        <v>2406.6000000000004</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="45"/>
+        <v>1856.4</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3">
+        <f>SUM(W23:W25)</f>
+        <v>5304</v>
+      </c>
+      <c r="X26" s="3">
+        <f>SUM(X23:X25)</f>
+        <v>7333</v>
+      </c>
+      <c r="Y26" s="3">
+        <f>SUM(Y23:Y25)</f>
+        <v>7699.65</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" ref="Z26:AK26" si="46">SUM(Z23:Z25)</f>
+        <v>7776.6464999999998</v>
+      </c>
+      <c r="AA26" s="3">
+        <f t="shared" si="46"/>
+        <v>7854.4129649999995</v>
+      </c>
+      <c r="AB26" s="3">
+        <f t="shared" si="46"/>
+        <v>7932.9570946500007</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="46"/>
+        <v>8012.2866655965008</v>
+      </c>
+      <c r="AD26" s="3">
+        <f t="shared" si="46"/>
+        <v>8092.4095322524645</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" si="46"/>
+        <v>8173.3336275749898</v>
+      </c>
+      <c r="AF26" s="3">
+        <f t="shared" si="46"/>
+        <v>8255.0669638507388</v>
+      </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="46"/>
+        <v>8337.617633489248</v>
+      </c>
+      <c r="AH26" s="3">
+        <f t="shared" si="46"/>
+        <v>8420.99380982414</v>
+      </c>
+      <c r="AI26" s="3">
+        <f t="shared" si="46"/>
+        <v>8505.2037479223818</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="46"/>
+        <v>8590.255785401605</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" si="46"/>
+        <v>8676.1583432556217</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:L27" si="47">F22-F26</f>
+        <v>489</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="47"/>
+        <v>218</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="47"/>
+        <v>25</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="47"/>
+        <v>1982</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="47"/>
+        <v>471</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="47"/>
+        <v>263</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="47"/>
+        <v>219</v>
+      </c>
+      <c r="M27" s="3">
+        <f>M22-M26</f>
+        <v>2558</v>
+      </c>
+      <c r="N27" s="3">
+        <f>N22-N26</f>
+        <v>87</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" ref="O27:R27" si="48">O22-O26</f>
+        <v>391.17899999999986</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="48"/>
+        <v>370.13099999999963</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="48"/>
+        <v>2645.3039999999992</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="48"/>
+        <v>308.95800000000008</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3">
+        <f>W22-W26</f>
+        <v>2696</v>
+      </c>
+      <c r="X27" s="3">
+        <f>X22-X26</f>
+        <v>3127</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" ref="Y27" si="49">Y22-Y26</f>
+        <v>3715.5719999999983</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" ref="Z27" si="50">Z22-Z26</f>
+        <v>4977.6688499999991</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" ref="AA27" si="51">AA22-AA26</f>
+        <v>5537.6181524999993</v>
+      </c>
+      <c r="AB27" s="3">
+        <f t="shared" ref="AB27" si="52">AB22-AB26</f>
+        <v>6128.6755787249986</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" ref="AC27" si="53">AC22-AC26</f>
+        <v>6752.4276414472497</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" ref="AD27" si="54">AD22-AD26</f>
+        <v>7410.540490143474</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" ref="AE27" si="55">AE22-AE26</f>
+        <v>8104.7638959407468</v>
+      </c>
+      <c r="AF27" s="3">
+        <f t="shared" ref="AF27" si="56">AF22-AF26</f>
+        <v>8836.9354358407836</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" ref="AG27" si="57">AG22-AG26</f>
+        <v>9608.9848861868522</v>
+      </c>
+      <c r="AH27" s="3">
+        <f t="shared" ref="AH27" si="58">AH22-AH26</f>
+        <v>10422.938835835765</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" ref="AI27" si="59">AI22-AI26</f>
+        <v>11280.925530020517</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" ref="AJ27" si="60">AJ22-AJ26</f>
+        <v>12185.179956438446</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" ref="AK27" si="61">AK22-AK26</f>
+        <v>13138.049185676435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1">
+        <f>-7+10</f>
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <f>-8+9</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <f>-7+54</f>
+        <v>47</v>
+      </c>
+      <c r="I28" s="1">
+        <f>-7+14</f>
+        <v>7</v>
+      </c>
+      <c r="J28" s="1">
+        <f>-7+8</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f>-7+50</f>
+        <v>43</v>
+      </c>
+      <c r="L28" s="1">
+        <f>-21-5</f>
+        <v>-26</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N28" s="1">
+        <f>-32+8</f>
+        <v>-24</v>
+      </c>
+      <c r="O28" s="2">
+        <f>AVERAGE(K28:N28)</f>
+        <v>-7.25</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28:R28" si="62">AVERAGE(L28:O28)</f>
+        <v>-19.8125</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="62"/>
+        <v>-18.265625</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="62"/>
+        <v>-17.33203125</v>
+      </c>
+      <c r="W28" s="3">
+        <f>SUM(G28:J28)</f>
+        <v>56</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" ref="X28:X30" si="63">SUM(K28:N28)</f>
+        <v>-29</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" ref="Y28" si="64">SUM(O28:R28)</f>
+        <v>-62.66015625</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" ref="F29:L29" si="65">F27+F28</f>
+        <v>492</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="65"/>
+        <v>219</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="65"/>
+        <v>72</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="65"/>
+        <v>1989</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="65"/>
+        <v>472</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="65"/>
+        <v>306</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="65"/>
+        <v>193</v>
+      </c>
+      <c r="M29" s="3">
+        <f>M27+M28</f>
+        <v>2536</v>
+      </c>
+      <c r="N29" s="3">
+        <f>N27+N28</f>
+        <v>63</v>
+      </c>
+      <c r="O29" s="3">
+        <f>O27+O28</f>
+        <v>383.92899999999986</v>
+      </c>
+      <c r="P29" s="3">
+        <f>P27+P28</f>
+        <v>350.31849999999963</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>Q27+Q28</f>
+        <v>2627.0383749999992</v>
+      </c>
+      <c r="R29" s="3">
+        <f>R27+R28</f>
+        <v>291.62596875000008</v>
+      </c>
+      <c r="W29" s="3">
+        <f>W27+W28</f>
+        <v>2752</v>
+      </c>
+      <c r="X29" s="3">
+        <f>X27+X28</f>
+        <v>3098</v>
+      </c>
+      <c r="Y29" s="3">
+        <f>Y27+Y28</f>
+        <v>3652.9118437499983</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" ref="Z29:AK29" si="66">Z27+Z28</f>
+        <v>4977.6688499999991</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" si="66"/>
+        <v>5537.6181524999993</v>
+      </c>
+      <c r="AB29" s="3">
+        <f t="shared" si="66"/>
+        <v>6128.6755787249986</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" si="66"/>
+        <v>6752.4276414472497</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" si="66"/>
+        <v>7410.540490143474</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="66"/>
+        <v>8104.7638959407468</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="66"/>
+        <v>8836.9354358407836</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="66"/>
+        <v>9608.9848861868522</v>
+      </c>
+      <c r="AH29" s="3">
+        <f t="shared" si="66"/>
+        <v>10422.938835835765</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" si="66"/>
+        <v>11280.925530020517</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="66"/>
+        <v>12185.179956438446</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="66"/>
+        <v>13138.049185676435</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>41</v>
+      </c>
+      <c r="G30" s="1">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>457</v>
+      </c>
+      <c r="J30" s="1">
+        <v>23</v>
+      </c>
+      <c r="K30" s="1">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-70</v>
+      </c>
+      <c r="M30" s="1">
+        <v>579</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-43</v>
+      </c>
+      <c r="O30" s="2">
+        <f>+O29*0.15</f>
+        <v>57.589349999999975</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" ref="P30:R30" si="67">+P29*0.15</f>
+        <v>52.547774999999945</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="67"/>
+        <v>394.05575624999989</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="67"/>
+        <v>43.743895312500008</v>
+      </c>
+      <c r="W30" s="3">
+        <f>SUM(G30:J30)</f>
+        <v>494</v>
+      </c>
+      <c r="X30" s="3">
+        <f>SUM(K30:N30)</f>
+        <v>476</v>
+      </c>
+      <c r="Y30" s="3">
+        <f>+Y29*0.15</f>
+        <v>547.93677656249974</v>
+      </c>
+      <c r="Z30" s="2">
+        <f>+Z29*0.15</f>
+        <v>746.65032749999989</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" ref="AA30:AK30" si="68">+AA29*0.15</f>
+        <v>830.64272287499989</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="68"/>
+        <v>919.30133680874974</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="68"/>
+        <v>1012.8641462170874</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="68"/>
+        <v>1111.5810735215211</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="68"/>
+        <v>1215.7145843911119</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="68"/>
+        <v>1325.5403153761174</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="68"/>
+        <v>1441.3477329280279</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="68"/>
+        <v>1563.4408253753647</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="68"/>
+        <v>1692.1388295030774</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="68"/>
+        <v>1827.7769934657667</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="68"/>
+        <v>1970.707377851465</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:L31" si="69">F29-F30</f>
         <v>451</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="7"/>
+      <c r="G31" s="3">
+        <f t="shared" si="69"/>
         <v>207</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="7"/>
+      <c r="H31" s="3">
+        <f t="shared" si="69"/>
         <v>70</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="7"/>
+      <c r="I31" s="3">
+        <f t="shared" si="69"/>
         <v>1532</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="7"/>
+      <c r="J31" s="3">
+        <f t="shared" si="69"/>
         <v>449</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="7"/>
+      <c r="K31" s="3">
+        <f t="shared" si="69"/>
         <v>296</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="7"/>
+      <c r="L31" s="3">
+        <f t="shared" si="69"/>
         <v>263</v>
       </c>
-      <c r="M23" s="3">
-        <f>M21-M22</f>
+      <c r="M31" s="3">
+        <f>M29-M30</f>
         <v>1957</v>
       </c>
-      <c r="W23" s="3">
-        <f>W21-W22</f>
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="N31" s="3">
+        <f>N29-N30</f>
+        <v>106</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" ref="O31:R31" si="70">O29-O30</f>
+        <v>326.33964999999989</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="70"/>
+        <v>297.77072499999969</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="70"/>
+        <v>2232.9826187499993</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="70"/>
+        <v>247.88207343750008</v>
+      </c>
+      <c r="W31" s="3">
+        <f>W29-W30</f>
+        <v>2258</v>
+      </c>
+      <c r="X31" s="3">
+        <f>X29-X30</f>
+        <v>2622</v>
+      </c>
+      <c r="Y31" s="3">
+        <f>Y29-Y30</f>
+        <v>3104.9750671874986</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" ref="Z31:AK31" si="71">Z29-Z30</f>
+        <v>4231.0185224999996</v>
+      </c>
+      <c r="AA31" s="3">
+        <f t="shared" si="71"/>
+        <v>4706.9754296249994</v>
+      </c>
+      <c r="AB31" s="3">
+        <f t="shared" si="71"/>
+        <v>5209.374241916249</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" si="71"/>
+        <v>5739.5634952301625</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" si="71"/>
+        <v>6298.9594166219531</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="71"/>
+        <v>6889.0493115496347</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" si="71"/>
+        <v>7511.3951204646664</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="71"/>
+        <v>8167.6371532588246</v>
+      </c>
+      <c r="AH31" s="3">
+        <f t="shared" si="71"/>
+        <v>8859.4980104604001</v>
+      </c>
+      <c r="AI31" s="3">
+        <f t="shared" si="71"/>
+        <v>9588.7867005174394</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="71"/>
+        <v>10357.402962972679</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" si="71"/>
+        <v>11167.341807824971</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <f>F23/F25</f>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <f t="shared" ref="F32:N32" si="72">F31/F33</f>
         <v>1.7083333333333333</v>
       </c>
-      <c r="G24" s="7">
-        <f>G23/G25</f>
+      <c r="G32" s="7">
+        <f t="shared" si="72"/>
         <v>0.78113207547169816</v>
       </c>
-      <c r="H24" s="7">
-        <f>H23/H25</f>
+      <c r="H32" s="7">
+        <f t="shared" si="72"/>
         <v>0.25641025641025639</v>
       </c>
-      <c r="I24" s="7">
-        <f>I23/I25</f>
+      <c r="I32" s="7">
+        <f t="shared" si="72"/>
         <v>5.5507246376811592</v>
       </c>
-      <c r="J24" s="7">
-        <f>J23/J25</f>
+      <c r="J32" s="7">
+        <f t="shared" si="72"/>
         <v>1.6209386281588447</v>
       </c>
-      <c r="K24" s="7">
-        <f>K23/K25</f>
+      <c r="K32" s="7">
+        <f t="shared" si="72"/>
         <v>1.0685920577617329</v>
       </c>
-      <c r="L24" s="7">
-        <f>L23/L25</f>
+      <c r="L32" s="7">
+        <f t="shared" si="72"/>
         <v>0.91637630662020908</v>
       </c>
-      <c r="M24" s="7">
-        <f>M23/M25</f>
+      <c r="M32" s="7">
+        <f t="shared" si="72"/>
         <v>6.8426573426573425</v>
       </c>
-      <c r="W24" s="7">
-        <f>W23/W25</f>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+      <c r="N32" s="7">
+        <f t="shared" si="72"/>
+        <v>0.37588652482269502</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" ref="O32" si="73">O31/O33</f>
+        <v>1.1572328014184394</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" ref="P32" si="74">P31/P33</f>
+        <v>1.0559245567375874</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" ref="Q32" si="75">Q31/Q33</f>
+        <v>7.9183780806737563</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" ref="R32" si="76">R31/R33</f>
+        <v>0.87901444481383006</v>
+      </c>
+      <c r="W32" s="7">
+        <f>W31/W33</f>
+        <v>8.2786434463794691</v>
+      </c>
+      <c r="X32" s="7">
+        <f>X31/X33</f>
+        <v>9.2650176678445231</v>
+      </c>
+      <c r="Y32" s="7">
+        <f>Y31/Y33</f>
+        <v>11.010549883643613</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" ref="Z32:AK32" si="77">Z31/Z33</f>
+        <v>15.003611781914891</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="77"/>
+        <v>16.691402232712765</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="77"/>
+        <v>18.47295830466755</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="77"/>
+        <v>20.353062039823271</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="77"/>
+        <v>22.336735519936003</v>
+      </c>
+      <c r="AE32" s="7">
+        <f t="shared" si="77"/>
+        <v>24.429252877835584</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="77"/>
+        <v>26.636152909449173</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="77"/>
+        <v>28.963252316520656</v>
+      </c>
+      <c r="AH32" s="7">
+        <f t="shared" si="77"/>
+        <v>31.416659611561702</v>
+      </c>
+      <c r="AI32" s="7">
+        <f t="shared" si="77"/>
+        <v>34.00278971814695</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f t="shared" si="77"/>
+        <v>36.72837930132156</v>
+      </c>
+      <c r="AK32" s="7">
+        <f t="shared" si="77"/>
+        <v>39.600502864627558</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F33" s="1">
         <v>264</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G33" s="1">
         <v>265</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H33" s="1">
         <v>273</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I33" s="1">
         <v>276</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J33" s="1">
         <v>277</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K33" s="1">
         <v>277</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L33" s="1">
         <v>287</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M33" s="1">
         <v>286</v>
       </c>
-      <c r="W25" s="3">
-        <f>AVERAGE(K25:N25)</f>
-        <v>283.33333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="8">
-        <f>K12/G12-1</f>
+      <c r="N33" s="1">
+        <v>282</v>
+      </c>
+      <c r="O33">
+        <f>+N33</f>
+        <v>282</v>
+      </c>
+      <c r="P33">
+        <f>+O33</f>
+        <v>282</v>
+      </c>
+      <c r="Q33">
+        <f>+P33</f>
+        <v>282</v>
+      </c>
+      <c r="R33">
+        <f>+Q33</f>
+        <v>282</v>
+      </c>
+      <c r="W33" s="3">
+        <f>AVERAGE(G33:J33)</f>
+        <v>272.75</v>
+      </c>
+      <c r="X33" s="3">
+        <f>AVERAGE(K33:N33)</f>
+        <v>283</v>
+      </c>
+      <c r="Y33" s="1">
+        <f>AVERAGE(O33:R33)</f>
+        <v>282</v>
+      </c>
+      <c r="Z33">
+        <f>+Y33</f>
+        <v>282</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ref="AA33:AK33" si="78">+Z33</f>
+        <v>282</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="78"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="8">
+        <f>K20/G20-1</f>
         <v>0.51700680272108834</v>
       </c>
-      <c r="L27" s="8">
-        <f>L12/H12-1</f>
+      <c r="L35" s="8">
+        <f>L20/H20-1</f>
         <v>0.69606598984771573</v>
       </c>
-      <c r="M27" s="8">
-        <f>M12/I12-1</f>
+      <c r="M35" s="8">
+        <f>M20/I20-1</f>
         <v>0.34962856458183555</v>
       </c>
-      <c r="N27" s="8">
-        <f>N12/J12-1</f>
-        <v>-0.22374072627879737</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="N35" s="8">
+        <f>N20/J20-1</f>
+        <v>-5.7399453338539685E-2</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" ref="O35:R35" si="79">O20/K20-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" si="79"/>
+        <v>0.14999999999999969</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="79"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="R35" s="8">
+        <f t="shared" si="79"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="X35" s="8">
+        <f>+X20/W20-1</f>
+        <v>0.32108377452507009</v>
+      </c>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
-        <f>G14/G12</f>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <f>G22/G20</f>
         <v>0.8117913832199547</v>
       </c>
-      <c r="H29" s="8">
-        <f>H14/H12</f>
+      <c r="H37" s="8">
+        <f>H22/H20</f>
         <v>0.77601522842639592</v>
       </c>
-      <c r="I29" s="8">
-        <f>I14/I12</f>
+      <c r="I37" s="8">
+        <f>I22/I20</f>
         <v>0.86077162712676736</v>
       </c>
-      <c r="K29" s="8">
-        <f>K14/K12</f>
+      <c r="J37" s="8">
+        <f>J22/J20</f>
+        <v>0.82428738773916443</v>
+      </c>
+      <c r="K37" s="8">
+        <f>K22/K20</f>
         <v>0.79970104633781769</v>
       </c>
-      <c r="L29" s="8">
-        <f>L14/L12</f>
+      <c r="L37" s="8">
+        <f>L22/L20</f>
         <v>0.80433969322858212</v>
       </c>
-      <c r="M29" s="8">
-        <f>M14/M12</f>
+      <c r="M37" s="8">
+        <f>M22/M20</f>
         <v>0.86115056818181823</v>
       </c>
-      <c r="W29" s="8">
-        <f>W14/W12</f>
-        <v>0.83446470131885186</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="N37" s="8">
+        <f>N22/N20</f>
+        <v>0.76843413421706708</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" ref="O37:R37" si="80">O22/O20</f>
+        <v>0.78</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="80"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="80"/>
+        <v>0.78</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="80"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="W37" s="8">
+        <f>W22/W20</f>
+        <v>0.83047856327208558</v>
+      </c>
+      <c r="X37" s="8">
+        <f>X22/X20</f>
+        <v>0.82193933679082198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
-        <f>G19/G12</f>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <f>G27/G20</f>
         <v>0.16477702191987906</v>
       </c>
-      <c r="H30" s="8">
-        <f>H19/H12</f>
+      <c r="H38" s="8">
+        <f>H27/H20</f>
         <v>1.5862944162436547E-2</v>
       </c>
-      <c r="I30" s="8">
-        <f>I19/I12</f>
+      <c r="I38" s="8">
+        <f>I27/I20</f>
         <v>0.47495806374311045</v>
       </c>
-      <c r="K30" s="8">
-        <f>K19/K12</f>
+      <c r="J38" s="8">
+        <f>J27/J20</f>
+        <v>0.18391253416634126</v>
+      </c>
+      <c r="K38" s="8">
+        <f>K27/K20</f>
         <v>0.1310413552566019</v>
       </c>
-      <c r="L30" s="8">
-        <f>L19/L12</f>
+      <c r="L38" s="8">
+        <f>L27/L20</f>
         <v>8.1930415263748599E-2</v>
       </c>
-      <c r="M30" s="8">
-        <f>M19/M12</f>
+      <c r="M38" s="8">
+        <f>M27/M20</f>
         <v>0.45419034090909088</v>
       </c>
-      <c r="W30" s="8">
-        <f>W19/W12</f>
-        <v>0.29480217222653221</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="N38" s="8">
+        <f>N27/N20</f>
+        <v>3.6039768019884011E-2</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" ref="O38:R38" si="81">O27/O20</f>
+        <v>0.1694846298823682</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="81"/>
+        <v>0.12040892011906495</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="81"/>
+        <v>0.40842761857707499</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" si="81"/>
+        <v>0.11129210042865895</v>
+      </c>
+      <c r="W38" s="8">
+        <f>W27/W20</f>
+        <v>0.27987127582269283</v>
+      </c>
+      <c r="X38" s="8">
+        <f>X27/X20</f>
+        <v>0.24571742888574571</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="3">
-        <f>M33-M50</f>
+      <c r="M40" s="3">
+        <f>M41-M58</f>
         <v>-2851</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="N40" s="3">
+        <f>N41-N58</f>
+        <v>-3026</v>
+      </c>
+    </row>
+    <row r="41" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3">
-        <f>3531+373+98</f>
-        <v>4002</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3">
-        <v>738</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3">
-        <f>6+8</f>
-        <v>14</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3">
-        <v>671</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3">
-        <v>539</v>
-      </c>
-      <c r="N37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3">
-        <v>858</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3">
-        <v>425</v>
-      </c>
-      <c r="N39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3">
-        <f>13731+7224</f>
-        <v>20955</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2184,17 +4101,21 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3">
-        <v>312</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="U41" s="3"/>
+        <f>3531+373+98</f>
+        <v>4002</v>
+      </c>
+      <c r="N41" s="3">
+        <f>2796+485+509+98</f>
+        <v>3888</v>
+      </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2207,16 +4128,20 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3">
-        <f>SUM(M33:M41)</f>
-        <v>28514</v>
-      </c>
-      <c r="N42" s="3"/>
-      <c r="U42" s="3"/>
+        <v>738</v>
+      </c>
+      <c r="N42" s="3">
+        <v>446</v>
+      </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2227,16 +4152,22 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="M43" s="3">
+        <f>6+8</f>
+        <v>14</v>
+      </c>
+      <c r="N43" s="3">
+        <f>93+11</f>
+        <v>104</v>
+      </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2249,17 +4180,19 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3">
-        <v>900</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="U44" s="3"/>
+        <v>671</v>
+      </c>
+      <c r="N44" s="3">
+        <v>287</v>
+      </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2272,17 +4205,19 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3">
-        <v>543</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="U45" s="3"/>
+        <v>539</v>
+      </c>
+      <c r="N45" s="3">
+        <v>431</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2295,17 +4230,19 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3">
-        <v>741</v>
-      </c>
-      <c r="N46" s="3"/>
-      <c r="U46" s="3"/>
+        <v>858</v>
+      </c>
+      <c r="N46" s="3">
+        <v>888</v>
+      </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2318,18 +4255,19 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3">
-        <f>198+608</f>
-        <v>806</v>
-      </c>
-      <c r="N47" s="3"/>
-      <c r="U47" s="3"/>
+        <v>425</v>
+      </c>
+      <c r="N47" s="3">
+        <v>549</v>
+      </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2342,17 +4280,21 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3">
-        <v>670</v>
-      </c>
-      <c r="N48" s="3"/>
-      <c r="U48" s="3"/>
+        <f>13731+7224</f>
+        <v>20955</v>
+      </c>
+      <c r="N48" s="3">
+        <f>13736+7061</f>
+        <v>20797</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2365,17 +4307,19 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3">
-        <v>539</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="U49" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="N49" s="3">
+        <v>344</v>
+      </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2388,18 +4332,19 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3">
-        <v>6853</v>
-      </c>
-      <c r="N50" s="3"/>
-      <c r="U50" s="3"/>
+        <f>SUM(M41:M49)</f>
+        <v>28514</v>
+      </c>
+      <c r="N50" s="3">
+        <f>SUM(N41:N49)</f>
+        <v>27734</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2410,18 +4355,16 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3">
-        <v>415</v>
-      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2434,17 +4377,19 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3">
-        <v>86</v>
-      </c>
-      <c r="N52" s="3"/>
-      <c r="U52" s="3"/>
+        <v>900</v>
+      </c>
+      <c r="N52" s="3">
+        <v>737</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2457,17 +4402,19 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3">
-        <v>16961</v>
-      </c>
-      <c r="N53" s="3"/>
-      <c r="U53" s="3"/>
+        <v>543</v>
+      </c>
+      <c r="N53" s="3">
+        <v>576</v>
+      </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2480,14 +4427,219 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3">
-        <f>SUM(M44:M53)</f>
-        <v>28514</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="U54" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="N54" s="3">
+        <v>808</v>
+      </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
+        <f>198+608</f>
+        <v>806</v>
+      </c>
+      <c r="N55" s="3">
+        <v>619</v>
+      </c>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
+        <v>670</v>
+      </c>
+      <c r="N56" s="3">
+        <v>579</v>
+      </c>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3">
+        <v>539</v>
+      </c>
+      <c r="N57" s="3">
+        <v>431</v>
+      </c>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3">
+        <v>6853</v>
+      </c>
+      <c r="N58" s="3">
+        <f>499+6415</f>
+        <v>6914</v>
+      </c>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3">
+        <v>415</v>
+      </c>
+      <c r="N59" s="3">
+        <v>542</v>
+      </c>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3">
+        <v>86</v>
+      </c>
+      <c r="N60" s="3">
+        <v>87</v>
+      </c>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3">
+        <v>16961</v>
+      </c>
+      <c r="N61" s="3">
+        <v>16441</v>
+      </c>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3">
+        <f>SUM(M52:M61)</f>
+        <v>28514</v>
+      </c>
+      <c r="N62" s="3">
+        <f>SUM(N52:N61)</f>
+        <v>27734</v>
+      </c>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/INTU.xlsx
+++ b/INTU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43265520-2CB8-4E67-B317-172D4612CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF0684-AFBE-4C9F-971D-991832769A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="1095" windowWidth="31890" windowHeight="19365" activeTab="1" xr2:uid="{F911F33E-D266-41EC-86F2-46FCC30D23BB}"/>
+    <workbookView xWindow="-44535" yWindow="1005" windowWidth="26295" windowHeight="19575" activeTab="1" xr2:uid="{F911F33E-D266-41EC-86F2-46FCC30D23BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     Earlier tax filing deadline</t>
       </text>
     </comment>
-    <comment ref="X20" authorId="1" shapeId="0" xr:uid="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
+    <comment ref="AH20" authorId="1" shapeId="0" xr:uid="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
     12.165-12.300B guidance FQ222 PR</t>
       </text>
     </comment>
-    <comment ref="Y20" authorId="2" shapeId="0" xr:uid="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
+    <comment ref="AI20" authorId="2" shapeId="0" xr:uid="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>Price</t>
   </si>
@@ -92,12 +92,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>QuickBooks</t>
-  </si>
-  <si>
-    <t>TurboTax</t>
-  </si>
-  <si>
     <t>5/24/22: FYQ322 results</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>Revenue y/y</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>FQ123</t>
   </si>
   <si>
@@ -360,16 +351,142 @@
   </si>
   <si>
     <t>Credit Karma - 8.1B</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>https://cs.stanford.edu/people/eroberts/cs181/projects/corporate-monopolies/dangers_quicken.html</t>
+  </si>
+  <si>
+    <t>MSFT 2.8B offer for Intuit in 1994.</t>
+  </si>
+  <si>
+    <t>Founder: Scott Cook</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>Sale of Loans</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Customer Funds</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Consumer: TurboTax</t>
+  </si>
+  <si>
+    <t>Small Business &amp; Self-Employed QuickBooks, MailChimp</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>12/3/20: acquired CreditKarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of revenue</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -395,12 +512,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -448,17 +559,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9BE2E7EB-F78F-4DA4-B7D2-B51353EB68BF}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,16 +584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>37098</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>37098</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -498,8 +608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11830050" y="0"/>
-          <a:ext cx="0" cy="8934450"/>
+          <a:off x="20656216" y="45119"/>
+          <a:ext cx="0" cy="16733920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -524,16 +634,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8523</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>43615</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63165</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8523</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>90236</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>43615</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>92243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -548,8 +658,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8941970" y="63165"/>
-          <a:ext cx="0" cy="8850229"/>
+          <a:off x="13483891" y="0"/>
+          <a:ext cx="0" cy="15332243"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -582,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +732,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,10 +991,10 @@
   <threadedComment ref="M20" dT="2022-09-26T02:35:42.18" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{B380F975-4FA7-483C-921D-1DFE73D05678}">
     <text>Earlier tax filing deadline</text>
   </threadedComment>
-  <threadedComment ref="X20" dT="2022-07-18T13:17:32.64" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
+  <threadedComment ref="AH20" dT="2022-07-18T13:17:32.64" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{833B3E48-D6B7-4F4E-BA46-042963E4E036}">
     <text>12.165-12.300B guidance FQ222 PR</text>
   </threadedComment>
-  <threadedComment ref="Y20" dT="2022-09-26T03:05:09.65" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
+  <threadedComment ref="AI20" dT="2022-09-26T03:05:09.65" personId="{6F1D3EAA-D855-4993-8BA5-672068DCE453}" id="{706C9F39-7589-416F-AFB2-5F4F692434F0}">
     <text>Q422 guidance: 14.485-14.700B</text>
   </threadedComment>
 </ThreadedComments>
@@ -892,77 +1002,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F1851-E36A-4E12-9896-01ED9C75784D}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="11">
-        <v>394</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>281.86987900000003</v>
+        <v>280</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>L2*L3</f>
-        <v>111056.73232600001</v>
+        <v>171640</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>4002</v>
+        <v>4205</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>6853</v>
+        <v>6038</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -971,17 +1075,47 @@
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>113907.73232600001</v>
+        <v>173473</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -991,13 +1125,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314521E4-F7EC-48A6-9D04-C6C2933ADBCA}">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AY96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomRight" activeCell="AD91" sqref="AD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,16 +1140,16 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="9" width="9.42578125" style="1" customWidth="1"/>
     <col min="10" max="14" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="8.5703125" customWidth="1"/>
-    <col min="22" max="25" width="9.140625" style="1"/>
+    <col min="15" max="26" width="8.5703125" customWidth="1"/>
+    <col min="32" max="35" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -1062,253 +1196,333 @@
         <f>+Q2+92</f>
         <v>45138</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="S2" s="9">
+        <f>+O2+365</f>
+        <v>45230</v>
+      </c>
+      <c r="T2" s="9">
+        <f>+P2+365</f>
+        <v>45322</v>
+      </c>
+      <c r="U2" s="9">
+        <f>+Q2+365</f>
+        <v>45411</v>
+      </c>
+      <c r="V2" s="9">
+        <f>+R2+365</f>
+        <v>45503</v>
+      </c>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10">
+        <f>+R2</f>
+        <v>45138</v>
+      </c>
+      <c r="AJ2" s="9">
+        <f>+V2</f>
+        <v>45503</v>
+      </c>
+      <c r="AK2" s="9">
+        <f>+AJ2+365</f>
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
-        <f>SUM(G5:G8)</f>
+        <f t="shared" ref="G4:R4" si="0">SUM(G5:G8)</f>
         <v>1181</v>
       </c>
       <c r="H4" s="6">
-        <f>SUM(H5:H8)</f>
+        <f t="shared" si="0"/>
         <v>1078</v>
       </c>
       <c r="I4" s="6">
-        <f>SUM(I5:I8)</f>
+        <f t="shared" si="0"/>
         <v>1177</v>
       </c>
       <c r="J4" s="6">
-        <f>SUM(J5:J8)</f>
+        <f t="shared" si="0"/>
         <v>1252</v>
       </c>
       <c r="K4" s="6">
-        <f>SUM(K5:K8)</f>
+        <f t="shared" si="0"/>
         <v>1443</v>
       </c>
       <c r="L4" s="6">
-        <f>SUM(L5:L8)</f>
+        <f t="shared" si="0"/>
         <v>1581</v>
       </c>
       <c r="M4" s="6">
-        <f>SUM(M5:M8)</f>
+        <f t="shared" si="0"/>
         <v>1667</v>
       </c>
       <c r="N4" s="6">
-        <f>SUM(N5:N8)</f>
+        <f t="shared" si="0"/>
         <v>1769</v>
       </c>
       <c r="O4" s="6">
-        <f>SUM(O5:O8)</f>
-        <v>1659.4499999999998</v>
+        <f t="shared" si="0"/>
+        <v>1988</v>
       </c>
       <c r="P4" s="6">
-        <f>SUM(P5:P8)</f>
-        <v>1818.1499999999996</v>
+        <f t="shared" si="0"/>
+        <v>1897</v>
       </c>
       <c r="Q4" s="6">
-        <f>SUM(Q5:Q8)</f>
-        <v>1917.0499999999997</v>
+        <f t="shared" si="0"/>
+        <v>2021</v>
       </c>
       <c r="R4" s="6">
         <f>SUM(R5:R8)</f>
-        <v>2034.35</v>
-      </c>
-      <c r="U4" s="6"/>
+        <v>1988</v>
+      </c>
+      <c r="S4" s="6">
+        <f>SUM(S5:S8)</f>
+        <v>2344</v>
+      </c>
+      <c r="T4" s="6">
+        <f>SUM(T5:T8)</f>
+        <v>2245</v>
+      </c>
+      <c r="U4" s="6">
+        <f>SUM(U5:U8)</f>
+        <v>2387</v>
+      </c>
       <c r="V4" s="6">
         <f>SUM(V5:V8)</f>
+        <v>2557</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6">
+        <f>SUM(AF5:AF8)</f>
         <v>4050</v>
       </c>
-      <c r="W4" s="6">
-        <f t="shared" ref="W4:Z4" si="0">SUM(W5:W8)</f>
+      <c r="AG4" s="6">
+        <f t="shared" ref="AG4:AH4" si="1">SUM(AG5:AG8)</f>
         <v>4688</v>
       </c>
-      <c r="X4" s="6">
-        <f t="shared" si="0"/>
+      <c r="AH4" s="6">
+        <f t="shared" si="1"/>
         <v>6460</v>
       </c>
-      <c r="Y4" s="6">
-        <f t="shared" si="0"/>
-        <v>7428.9999999999982</v>
-      </c>
-      <c r="Z4" s="6">
-        <f t="shared" si="0"/>
-        <v>7800.4499999999989</v>
-      </c>
-      <c r="AA4" s="6">
-        <f t="shared" ref="AA4" si="1">SUM(AA5:AA8)</f>
-        <v>8190.4724999999989</v>
-      </c>
-      <c r="AB4" s="6">
-        <f t="shared" ref="AB4" si="2">SUM(AB5:AB8)</f>
-        <v>8599.9961249999997</v>
-      </c>
-      <c r="AC4" s="6">
-        <f t="shared" ref="AC4" si="3">SUM(AC5:AC8)</f>
-        <v>9029.9959312499996</v>
-      </c>
-      <c r="AD4" s="6">
-        <f t="shared" ref="AD4" si="4">SUM(AD5:AD8)</f>
-        <v>9481.4957278125003</v>
-      </c>
-      <c r="AE4" s="6">
-        <f t="shared" ref="AE4" si="5">SUM(AE5:AE8)</f>
-        <v>9955.5705142031256</v>
-      </c>
-      <c r="AF4" s="6">
-        <f t="shared" ref="AF4" si="6">SUM(AF5:AF8)</f>
-        <v>10453.349039913284</v>
-      </c>
-      <c r="AG4" s="6">
-        <f t="shared" ref="AG4" si="7">SUM(AG5:AG8)</f>
-        <v>10976.016491908948</v>
-      </c>
-      <c r="AH4" s="6">
-        <f t="shared" ref="AH4" si="8">SUM(AH5:AH8)</f>
-        <v>11524.817316504395</v>
-      </c>
       <c r="AI4" s="6">
-        <f t="shared" ref="AI4" si="9">SUM(AI5:AI8)</f>
-        <v>12101.058182329616</v>
+        <f>SUM(AI5:AI8)</f>
+        <v>7894</v>
       </c>
       <c r="AJ4" s="6">
-        <f t="shared" ref="AJ4" si="10">SUM(AJ5:AJ8)</f>
-        <v>12706.111091446099</v>
+        <f>SUM(AJ5:AJ8)</f>
+        <v>8288.7000000000007</v>
       </c>
       <c r="AK4" s="6">
-        <f t="shared" ref="AK4" si="11">SUM(AK5:AK8)</f>
-        <v>13341.416646018404</v>
-      </c>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-    </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK4" si="2">SUM(AK5:AK8)</f>
+        <v>8703.135000000002</v>
+      </c>
+      <c r="AL4" s="6">
+        <f t="shared" ref="AL4" si="3">SUM(AL5:AL8)</f>
+        <v>9138.2917500000021</v>
+      </c>
+      <c r="AM4" s="6">
+        <f t="shared" ref="AM4" si="4">SUM(AM5:AM8)</f>
+        <v>9595.2063375000016</v>
+      </c>
+      <c r="AN4" s="6">
+        <f t="shared" ref="AN4" si="5">SUM(AN5:AN8)</f>
+        <v>10074.966654375003</v>
+      </c>
+      <c r="AO4" s="6">
+        <f t="shared" ref="AO4" si="6">SUM(AO5:AO8)</f>
+        <v>10578.714987093754</v>
+      </c>
+      <c r="AP4" s="6">
+        <f t="shared" ref="AP4" si="7">SUM(AP5:AP8)</f>
+        <v>11107.650736448441</v>
+      </c>
+      <c r="AQ4" s="6">
+        <f t="shared" ref="AQ4" si="8">SUM(AQ5:AQ8)</f>
+        <v>11663.033273270863</v>
+      </c>
+      <c r="AR4" s="6">
+        <f t="shared" ref="AR4" si="9">SUM(AR5:AR8)</f>
+        <v>12246.184936934405</v>
+      </c>
+      <c r="AS4" s="6">
+        <f t="shared" ref="AS4" si="10">SUM(AS5:AS8)</f>
+        <v>12858.494183781126</v>
+      </c>
+      <c r="AT4" s="6">
+        <f t="shared" ref="AT4" si="11">SUM(AT5:AT8)</f>
+        <v>13501.418892970183</v>
+      </c>
+      <c r="AU4" s="6">
+        <f t="shared" ref="AU4" si="12">SUM(AU5:AU8)</f>
+        <v>14176.489837618694</v>
+      </c>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+    </row>
+    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1324,7 +1538,7 @@
         <v>437</v>
       </c>
       <c r="J5" s="3">
-        <f>W5-I5-H5-G5</f>
+        <f>AG5-I5-H5-G5</f>
         <v>466</v>
       </c>
       <c r="K5" s="3">
@@ -1337,95 +1551,108 @@
         <v>578</v>
       </c>
       <c r="N5" s="3">
-        <f>+X5-M5-L5-K5</f>
+        <f>+AH5-M5-L5-K5</f>
         <v>623</v>
       </c>
       <c r="O5" s="3">
-        <f>+K5*1.15</f>
-        <v>596.84999999999991</v>
+        <v>668</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P8" si="12">+L5*1.15</f>
-        <v>629.04999999999995</v>
+        <v>696</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q8" si="13">+M5*1.15</f>
-        <v>664.69999999999993</v>
+        <v>723</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" ref="R5:R8" si="14">+N5*1.15</f>
-        <v>716.44999999999993</v>
-      </c>
-      <c r="U5" s="3"/>
+        <v>668</v>
+      </c>
+      <c r="S5" s="3">
+        <v>798</v>
+      </c>
+      <c r="T5" s="3">
+        <v>826</v>
+      </c>
+      <c r="U5" s="3">
+        <v>860</v>
+      </c>
       <c r="V5" s="3">
+        <f>3379-U5-T5-S5</f>
+        <v>895</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3">
         <v>1354</v>
       </c>
-      <c r="W5" s="3">
+      <c r="AG5" s="3">
         <v>1699</v>
       </c>
-      <c r="X5" s="3">
+      <c r="AH5" s="3">
         <v>2267</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="AI5" s="3">
         <f>SUM(O5:R5)</f>
-        <v>2607.0499999999997</v>
-      </c>
-      <c r="Z5" s="3">
-        <f>+Y5*1.05</f>
-        <v>2737.4024999999997</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" ref="AA5:AK5" si="15">+Z5*1.05</f>
-        <v>2874.2726249999996</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="15"/>
-        <v>3017.9862562499998</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="15"/>
-        <v>3168.8855690625001</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" si="15"/>
-        <v>3327.3298475156253</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" si="15"/>
-        <v>3493.6963398914068</v>
-      </c>
-      <c r="AF5" s="3">
-        <f t="shared" si="15"/>
-        <v>3668.3811568859774</v>
-      </c>
-      <c r="AG5" s="3">
-        <f t="shared" si="15"/>
-        <v>3851.8002147302764</v>
-      </c>
-      <c r="AH5" s="3">
-        <f t="shared" si="15"/>
-        <v>4044.3902254667905</v>
-      </c>
-      <c r="AI5" s="3">
-        <f t="shared" si="15"/>
-        <v>4246.6097367401298</v>
+        <v>2755</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="15"/>
-        <v>4458.9402235771367</v>
+        <f>+AI5*1.05</f>
+        <v>2892.75</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="15"/>
-        <v>4681.8872347559936</v>
-      </c>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK5:AU5" si="13">+AJ5*1.05</f>
+        <v>3037.3875000000003</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" si="13"/>
+        <v>3189.2568750000005</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="13"/>
+        <v>3348.7197187500005</v>
+      </c>
+      <c r="AN5" s="3">
+        <f t="shared" si="13"/>
+        <v>3516.1557046875009</v>
+      </c>
+      <c r="AO5" s="3">
+        <f t="shared" si="13"/>
+        <v>3691.9634899218763</v>
+      </c>
+      <c r="AP5" s="3">
+        <f t="shared" si="13"/>
+        <v>3876.5616644179704</v>
+      </c>
+      <c r="AQ5" s="3">
+        <f t="shared" si="13"/>
+        <v>4070.3897476388693</v>
+      </c>
+      <c r="AR5" s="3">
+        <f t="shared" si="13"/>
+        <v>4273.909235020813</v>
+      </c>
+      <c r="AS5" s="3">
+        <f t="shared" si="13"/>
+        <v>4487.6046967718539</v>
+      </c>
+      <c r="AT5" s="3">
+        <f t="shared" si="13"/>
+        <v>4711.9849316104464</v>
+      </c>
+      <c r="AU5" s="3">
+        <f t="shared" si="13"/>
+        <v>4947.5841781909694</v>
+      </c>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+    </row>
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1441,7 +1668,7 @@
         <v>278</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J8" si="16">W6-I6-H6-G6</f>
+        <f t="shared" ref="J6:J8" si="14">AG6-I6-H6-G6</f>
         <v>304</v>
       </c>
       <c r="K6" s="3">
@@ -1454,95 +1681,108 @@
         <v>614</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N8" si="17">+X6-M6-L6-K6</f>
+        <f t="shared" ref="N6:N8" si="15">+AH6-M6-L6-K6</f>
         <v>657</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O8" si="18">+K6*1.15</f>
-        <v>374.9</v>
+        <v>681</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="12"/>
-        <v>660.09999999999991</v>
+        <v>695</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="13"/>
-        <v>706.09999999999991</v>
+        <v>745</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="14"/>
-        <v>755.55</v>
-      </c>
-      <c r="U6" s="3"/>
+        <v>681</v>
+      </c>
+      <c r="S6" s="3">
+        <v>820</v>
+      </c>
+      <c r="T6" s="3">
+        <v>862</v>
+      </c>
+      <c r="U6" s="3">
+        <v>894</v>
+      </c>
       <c r="V6" s="3">
+        <f>3513-U6-T6-S6</f>
+        <v>937</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3">
         <v>828</v>
       </c>
-      <c r="W6" s="3">
+      <c r="AG6" s="3">
         <v>1051</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AH6" s="3">
         <v>2171</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" ref="Y6:Y12" si="19">SUM(O6:R6)</f>
-        <v>2496.6499999999996</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" ref="Z6:AK11" si="20">+Y6*1.05</f>
-        <v>2621.4824999999996</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="20"/>
-        <v>2752.5566249999997</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="20"/>
-        <v>2890.18445625</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="20"/>
-        <v>3034.6936790625</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="20"/>
-        <v>3186.4283630156251</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="20"/>
-        <v>3345.7497811664066</v>
-      </c>
-      <c r="AF6" s="3">
-        <f t="shared" si="20"/>
-        <v>3513.0372702247269</v>
-      </c>
-      <c r="AG6" s="3">
-        <f t="shared" si="20"/>
-        <v>3688.6891337359634</v>
-      </c>
-      <c r="AH6" s="3">
-        <f t="shared" si="20"/>
-        <v>3873.1235904227619</v>
-      </c>
       <c r="AI6" s="3">
-        <f t="shared" si="20"/>
-        <v>4066.7797699439002</v>
+        <f t="shared" ref="AI6:AI12" si="16">SUM(O6:R6)</f>
+        <v>2802</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="20"/>
-        <v>4270.1187584410955</v>
+        <f t="shared" ref="AJ6:AU10" si="17">+AI6*1.05</f>
+        <v>2942.1</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="20"/>
-        <v>4483.6246963631502</v>
-      </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>3089.2049999999999</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="17"/>
+        <v>3243.66525</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="17"/>
+        <v>3405.8485125000002</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="17"/>
+        <v>3576.1409381250005</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="17"/>
+        <v>3754.9479850312505</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="17"/>
+        <v>3942.6953842828134</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="17"/>
+        <v>4139.8301534969542</v>
+      </c>
+      <c r="AR6" s="3">
+        <f t="shared" si="17"/>
+        <v>4346.8216611718017</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="17"/>
+        <v>4564.1627442303916</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" si="17"/>
+        <v>4792.3708814419115</v>
+      </c>
+      <c r="AU6" s="3">
+        <f t="shared" si="17"/>
+        <v>5031.9894255140071</v>
+      </c>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+    </row>
+    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1558,7 +1798,7 @@
         <v>193</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>195</v>
       </c>
       <c r="K7" s="3">
@@ -1571,95 +1811,108 @@
         <v>201</v>
       </c>
       <c r="N7" s="3">
+        <f t="shared" si="15"/>
+        <v>214</v>
+      </c>
+      <c r="O7" s="3">
+        <v>312</v>
+      </c>
+      <c r="P7" s="3">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>280</v>
+      </c>
+      <c r="R7" s="3">
+        <v>312</v>
+      </c>
+      <c r="S7" s="3">
+        <v>376</v>
+      </c>
+      <c r="T7" s="3">
+        <v>256</v>
+      </c>
+      <c r="U7" s="3">
+        <v>337</v>
+      </c>
+      <c r="V7" s="3">
+        <f>1389-U7-T7-S7</f>
+        <v>420</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3">
+        <v>755</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>789</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>851</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="16"/>
+        <v>1119</v>
+      </c>
+      <c r="AJ7" s="3">
         <f t="shared" si="17"/>
-        <v>214</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="18"/>
-        <v>307.04999999999995</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="12"/>
-        <v>194.35</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="13"/>
-        <v>231.14999999999998</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="14"/>
-        <v>246.1</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
-        <v>755</v>
-      </c>
-      <c r="W7" s="3">
-        <v>789</v>
-      </c>
-      <c r="X7" s="3">
-        <v>851</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="19"/>
-        <v>978.65</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="20"/>
-        <v>1027.5825</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="20"/>
-        <v>1078.9616250000001</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="20"/>
-        <v>1132.9097062500002</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="20"/>
-        <v>1189.5551915625003</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="20"/>
-        <v>1249.0329511406253</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="20"/>
-        <v>1311.4845986976566</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="20"/>
-        <v>1377.0588286325394</v>
-      </c>
-      <c r="AG7" s="3">
-        <f t="shared" si="20"/>
-        <v>1445.9117700641664</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" si="20"/>
-        <v>1518.2073585673747</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" si="20"/>
-        <v>1594.1177264957435</v>
-      </c>
-      <c r="AJ7" s="3">
-        <f t="shared" si="20"/>
-        <v>1673.8236128205308</v>
+        <v>1174.95</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="20"/>
-        <v>1757.5147934615575</v>
-      </c>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>1233.6975</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="17"/>
+        <v>1295.3823750000001</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="17"/>
+        <v>1360.1514937500001</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" si="17"/>
+        <v>1428.1590684375001</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" si="17"/>
+        <v>1499.5670218593752</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="17"/>
+        <v>1574.545372952344</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" si="17"/>
+        <v>1653.2726415999612</v>
+      </c>
+      <c r="AR7" s="3">
+        <f t="shared" si="17"/>
+        <v>1735.9362736799592</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" si="17"/>
+        <v>1822.7330873639571</v>
+      </c>
+      <c r="AT7" s="3">
+        <f t="shared" si="17"/>
+        <v>1913.869741732155</v>
+      </c>
+      <c r="AU7" s="3">
+        <f t="shared" si="17"/>
+        <v>2009.5632288187628</v>
+      </c>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+    </row>
+    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1675,7 +1928,7 @@
         <v>269</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>287</v>
       </c>
       <c r="K8" s="3">
@@ -1688,233 +1941,267 @@
         <v>274</v>
       </c>
       <c r="N8" s="3">
+        <f t="shared" si="15"/>
+        <v>275</v>
+      </c>
+      <c r="O8" s="3">
+        <v>327</v>
+      </c>
+      <c r="P8" s="3">
+        <v>291</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>273</v>
+      </c>
+      <c r="R8" s="3">
+        <v>327</v>
+      </c>
+      <c r="S8" s="3">
+        <v>350</v>
+      </c>
+      <c r="T8" s="3">
+        <v>301</v>
+      </c>
+      <c r="U8" s="3">
+        <v>296</v>
+      </c>
+      <c r="V8" s="3">
+        <f>1252-U8-T8-S8</f>
+        <v>305</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3">
+        <v>1113</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1149</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1171</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="16"/>
+        <v>1218</v>
+      </c>
+      <c r="AJ8" s="3">
         <f t="shared" si="17"/>
-        <v>275</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="18"/>
-        <v>380.65</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="12"/>
-        <v>334.65</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="13"/>
-        <v>315.09999999999997</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="14"/>
-        <v>316.25</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3">
-        <v>1113</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1149</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1171</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="19"/>
-        <v>1346.6499999999999</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="20"/>
-        <v>1413.9824999999998</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="20"/>
-        <v>1484.6816249999999</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="20"/>
-        <v>1558.9157062500001</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="20"/>
-        <v>1636.8614915625001</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" si="20"/>
-        <v>1718.704566140625</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="20"/>
-        <v>1804.6397944476564</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="20"/>
-        <v>1894.8717841700393</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" si="20"/>
-        <v>1989.6153733785413</v>
-      </c>
-      <c r="AH8" s="3">
-        <f t="shared" si="20"/>
-        <v>2089.0961420474687</v>
-      </c>
-      <c r="AI8" s="3">
-        <f t="shared" si="20"/>
-        <v>2193.5509491498424</v>
-      </c>
-      <c r="AJ8" s="3">
-        <f t="shared" si="20"/>
-        <v>2303.2284966073348</v>
+        <v>1278.9000000000001</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="20"/>
-        <v>2418.3899214377016</v>
-      </c>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>1342.8450000000003</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="17"/>
+        <v>1409.9872500000004</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="17"/>
+        <v>1480.4866125000005</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" si="17"/>
+        <v>1554.5109431250007</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" si="17"/>
+        <v>1632.2364902812508</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" si="17"/>
+        <v>1713.8483147953134</v>
+      </c>
+      <c r="AQ8" s="3">
+        <f t="shared" si="17"/>
+        <v>1799.5407305350791</v>
+      </c>
+      <c r="AR8" s="3">
+        <f t="shared" si="17"/>
+        <v>1889.5177670618332</v>
+      </c>
+      <c r="AS8" s="3">
+        <f t="shared" si="17"/>
+        <v>1983.9936554149249</v>
+      </c>
+      <c r="AT8" s="3">
+        <f t="shared" si="17"/>
+        <v>2083.1933381856711</v>
+      </c>
+      <c r="AU8" s="3">
+        <f t="shared" si="17"/>
+        <v>2187.3530050949548</v>
+      </c>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-    </row>
-    <row r="10" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+    </row>
+    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>119</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="3">
         <v>147</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="3">
         <v>2445</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="3">
         <v>852</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="3">
         <v>120</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="3">
         <v>411</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="3">
         <v>3239</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="3">
         <v>145</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="O10:O12" si="21">+K10*1.15</f>
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P10:P12" si="22">+L10*1.15</f>
-        <v>472.65</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10:Q12" si="23">+M10*1.15</f>
-        <v>3724.85</v>
+        <v>3341</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:R12" si="24">+N10*1.15</f>
-        <v>166.75</v>
-      </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13">
+        <v>150</v>
+      </c>
+      <c r="S10" s="3">
+        <v>187</v>
+      </c>
+      <c r="T10" s="3">
+        <v>492</v>
+      </c>
+      <c r="U10" s="3">
+        <v>3653</v>
+      </c>
+      <c r="V10" s="3">
+        <f>4445-U10-T10-S10</f>
+        <v>113</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3">
         <v>3136</v>
       </c>
-      <c r="W10" s="13">
+      <c r="AG10" s="3">
         <v>3563</v>
       </c>
-      <c r="X10" s="13">
+      <c r="AH10" s="3">
         <v>3915</v>
       </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="19"/>
-        <v>4502.25</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="20"/>
-        <v>4727.3625000000002</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="20"/>
-        <v>4963.7306250000001</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="20"/>
-        <v>5211.9171562500005</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="20"/>
-        <v>5472.5130140625006</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="20"/>
-        <v>5746.1386647656254</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="20"/>
-        <v>6033.4455980039065</v>
-      </c>
-      <c r="AF10" s="3">
-        <f t="shared" si="20"/>
-        <v>6335.117877904102</v>
-      </c>
-      <c r="AG10" s="3">
-        <f t="shared" si="20"/>
-        <v>6651.8737717993072</v>
-      </c>
-      <c r="AH10" s="3">
-        <f t="shared" si="20"/>
-        <v>6984.4674603892727</v>
-      </c>
       <c r="AI10" s="3">
-        <f t="shared" si="20"/>
-        <v>7333.6908334087366</v>
+        <f t="shared" si="16"/>
+        <v>4157</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="20"/>
-        <v>7700.3753750791739</v>
+        <f t="shared" si="17"/>
+        <v>4364.8500000000004</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="20"/>
-        <v>8085.3941438331331</v>
-      </c>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-    </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>4583.0925000000007</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="17"/>
+        <v>4812.2471250000008</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="17"/>
+        <v>5052.8594812500014</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="17"/>
+        <v>5305.5024553125013</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="17"/>
+        <v>5570.7775780781267</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="17"/>
+        <v>5849.3164569820328</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f t="shared" si="17"/>
+        <v>6141.7822798311345</v>
+      </c>
+      <c r="AR10" s="3">
+        <f t="shared" si="17"/>
+        <v>6448.8713938226911</v>
+      </c>
+      <c r="AS10" s="3">
+        <f t="shared" si="17"/>
+        <v>6771.3149635138261</v>
+      </c>
+      <c r="AT10" s="3">
+        <f t="shared" si="17"/>
+        <v>7109.8807116895177</v>
+      </c>
+      <c r="AU10" s="3">
+        <f t="shared" si="17"/>
+        <v>7465.3747472739942</v>
+      </c>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+    </row>
+    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1930,7 +2217,7 @@
         <v>316</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:J12" si="25">W11-I11-H11-G11</f>
+        <f t="shared" ref="J11:J12" si="18">AG11-I11-H11-G11</f>
         <v>405</v>
       </c>
       <c r="K11" s="3">
@@ -1943,88 +2230,101 @@
         <v>468</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11:N12" si="26">+X11-M11-L11-K11</f>
+        <f t="shared" ref="N11:N12" si="19">+AH11-M11-L11-K11</f>
         <v>475</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="21"/>
-        <v>480.7</v>
+        <v>425</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="22"/>
-        <v>510.59999999999997</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="23"/>
-        <v>538.19999999999993</v>
+        <v>410</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="24"/>
-        <v>546.25</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3">
+        <v>425</v>
+      </c>
+      <c r="S11" s="3">
+        <v>405</v>
+      </c>
+      <c r="T11" s="3">
+        <v>375</v>
+      </c>
+      <c r="U11" s="3">
+        <v>443</v>
+      </c>
+      <c r="V11" s="3">
+        <f>1708-U11-T11-S11</f>
+        <v>485</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3">
         <v>865</v>
       </c>
-      <c r="X11" s="3">
+      <c r="AH11" s="3">
         <v>1805</v>
       </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="19"/>
-        <v>2075.75</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AK11" si="27">+Y11*1.05</f>
-        <v>2179.5374999999999</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="27"/>
-        <v>2288.5143750000002</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="27"/>
-        <v>2402.9400937500004</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="27"/>
-        <v>2523.0870984375006</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="27"/>
-        <v>2649.2414533593756</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="27"/>
-        <v>2781.7035260273447</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" si="27"/>
-        <v>2920.7887023287121</v>
-      </c>
-      <c r="AG11" s="3">
-        <f t="shared" si="27"/>
-        <v>3066.8281374451481</v>
-      </c>
-      <c r="AH11" s="3">
-        <f t="shared" si="27"/>
-        <v>3220.1695443174058</v>
-      </c>
       <c r="AI11" s="3">
-        <f t="shared" si="27"/>
-        <v>3381.178021533276</v>
+        <f t="shared" si="16"/>
+        <v>1635</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="27"/>
-        <v>3550.2369226099399</v>
+        <f t="shared" ref="AJ11:AU11" si="20">+AI11*1.05</f>
+        <v>1716.75</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="27"/>
-        <v>3727.7487687404373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>1802.5875000000001</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="20"/>
+        <v>1892.7168750000001</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="20"/>
+        <v>1987.3527187500001</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" si="20"/>
+        <v>2086.7203546875003</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="20"/>
+        <v>2191.0563724218755</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="20"/>
+        <v>2300.6091910429695</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f t="shared" si="20"/>
+        <v>2415.6396505951179</v>
+      </c>
+      <c r="AR11" s="3">
+        <f t="shared" si="20"/>
+        <v>2536.421633124874</v>
+      </c>
+      <c r="AS11" s="3">
+        <f t="shared" si="20"/>
+        <v>2663.2427147811177</v>
+      </c>
+      <c r="AT11" s="3">
+        <f t="shared" si="20"/>
+        <v>2796.4048505201736</v>
+      </c>
+      <c r="AU11" s="3">
+        <f t="shared" si="20"/>
+        <v>2936.2250930461823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2040,7 +2340,7 @@
         <v>235</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="K12" s="3">
@@ -2053,88 +2353,101 @@
         <v>258</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="O12" s="3">
+        <v>34</v>
+      </c>
+      <c r="P12" s="3">
+        <v>253</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>246</v>
+      </c>
+      <c r="R12" s="3">
+        <v>34</v>
+      </c>
+      <c r="S12" s="3">
+        <v>42</v>
+      </c>
+      <c r="T12" s="3">
+        <v>274</v>
+      </c>
+      <c r="U12" s="3">
+        <v>254</v>
+      </c>
+      <c r="V12" s="3">
+        <f>599-U12-T12-S12</f>
+        <v>29</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AF12" s="3">
+        <v>493</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>517</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>546</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="16"/>
+        <v>567</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" ref="AJ12:AU12" si="21">+AI12*1.05</f>
+        <v>595.35</v>
+      </c>
+      <c r="AK12" s="3">
+        <f>+AJ12*1.05</f>
+        <v>625.11750000000006</v>
+      </c>
+      <c r="AL12" s="3">
+        <f>+AK12*1.05</f>
+        <v>656.37337500000012</v>
+      </c>
+      <c r="AM12" s="3">
         <f t="shared" si="21"/>
-        <v>29.9</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="22"/>
-        <v>272.54999999999995</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="23"/>
-        <v>296.7</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="24"/>
-        <v>28.749999999999996</v>
-      </c>
-      <c r="V12" s="3">
-        <v>493</v>
-      </c>
-      <c r="W12" s="3">
-        <v>517</v>
-      </c>
-      <c r="X12" s="3">
-        <v>546</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="19"/>
-        <v>627.89999999999986</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12:AK12" si="28">+Y12*1.05</f>
-        <v>659.29499999999985</v>
-      </c>
-      <c r="AA12" s="3">
-        <f>+Z12*1.05</f>
-        <v>692.25974999999983</v>
-      </c>
-      <c r="AB12" s="3">
-        <f>+AA12*1.05</f>
-        <v>726.87273749999986</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="28"/>
-        <v>763.21637437499987</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="28"/>
-        <v>801.37719309374995</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="28"/>
-        <v>841.44605274843752</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="28"/>
-        <v>883.51835538585942</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="28"/>
-        <v>927.69427315515247</v>
-      </c>
-      <c r="AH12" s="3">
-        <f t="shared" si="28"/>
-        <v>974.0789868129101</v>
-      </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="28"/>
-        <v>1022.7829361535556</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="28"/>
-        <v>1073.9220829612334</v>
-      </c>
-      <c r="AK12" s="3">
-        <f t="shared" si="28"/>
-        <v>1127.6181871092951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>689.19204375000015</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" si="21"/>
+        <v>723.65164593750023</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="21"/>
+        <v>759.83422823437525</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="21"/>
+        <v>797.82593964609407</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f t="shared" si="21"/>
+        <v>837.71723662839884</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="21"/>
+        <v>879.60309845981885</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="21"/>
+        <v>923.58325338280986</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="21"/>
+        <v>969.76241605195037</v>
+      </c>
+      <c r="AU12" s="3">
+        <f t="shared" si="21"/>
+        <v>1018.2505368545479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2147,14 +2460,14 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+    </row>
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2172,14 +2485,14 @@
       <c r="N14" s="3">
         <v>265</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2195,12 +2508,12 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2213,14 +2526,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="18" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="18" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2252,23 +2565,63 @@
       <c r="N18" s="3">
         <v>271</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3">
+      <c r="O18" s="2">
+        <v>2155</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2418</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>5404</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2340</v>
+      </c>
+      <c r="S18" s="2">
+        <v>2450</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2693</v>
+      </c>
+      <c r="U18" s="2">
+        <v>6048</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2670</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1289</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1376</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1624</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1623</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3">
         <f>SUM(G18:J18)</f>
         <v>1698</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AH18" s="3">
         <f>SUM(K18:N18)</f>
         <v>1747</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AI18" s="3">
         <f>SUM(O18:R18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12317</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f>SUM(S18:V18)</f>
+        <v>13861</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2300,53 +2653,93 @@
       <c r="N19" s="3">
         <v>2143</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3">
+      <c r="O19" s="2">
+        <v>442</v>
+      </c>
+      <c r="P19" s="2">
+        <v>623</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>614</v>
+      </c>
+      <c r="R19" s="2">
+        <v>372</v>
+      </c>
+      <c r="S19" s="2">
+        <v>528</v>
+      </c>
+      <c r="T19" s="2">
+        <v>693</v>
+      </c>
+      <c r="U19" s="2">
+        <v>689</v>
+      </c>
+      <c r="V19" s="2">
+        <v>514</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>3405</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>3801</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>4401</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>5161</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3">
         <f>SUM(G19:J19)</f>
         <v>7935</v>
       </c>
-      <c r="X19" s="3">
+      <c r="AH19" s="3">
         <f>SUM(K19:N19)</f>
         <v>10979</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="AI19" s="3">
         <f>SUM(O19:R19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f>SUM(S19:V19)</f>
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:L20" si="29">F18+F19</f>
+        <f t="shared" ref="F20:L20" si="22">F18+F19</f>
         <v>1816</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>1323</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>1576</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>4173</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>2561</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>2007</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>2673</v>
       </c>
       <c r="M20" s="6">
@@ -2358,88 +2751,124 @@
         <v>2414</v>
       </c>
       <c r="O20" s="6">
-        <f>+O12+O11+O10+O4</f>
-        <v>2308.0499999999997</v>
+        <f>+O18+O19</f>
+        <v>2597</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:R20" si="30">+P12+P11+P10+P4</f>
-        <v>3073.9499999999994</v>
+        <f>+P18+P19</f>
+        <v>3041</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="30"/>
-        <v>6476.7999999999993</v>
+        <f>+Q18+Q19</f>
+        <v>6018</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="30"/>
-        <v>2776.1</v>
+        <f>+R18+R19</f>
+        <v>2712</v>
+      </c>
+      <c r="S20" s="6">
+        <f>+S19+S18</f>
+        <v>2978</v>
+      </c>
+      <c r="T20" s="6">
+        <f>+T19+T18</f>
+        <v>3386</v>
+      </c>
+      <c r="U20" s="6">
+        <f>+U19+U18</f>
+        <v>6737</v>
       </c>
       <c r="V20" s="6">
+        <f>+V19+V18</f>
+        <v>3184</v>
+      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AB20" s="6">
+        <f t="shared" ref="AB20:AC20" si="23">+AB18+AB19</f>
+        <v>4694</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="23"/>
+        <v>5177</v>
+      </c>
+      <c r="AD20" s="6">
+        <f>+AD18+AD19</f>
+        <v>6025</v>
+      </c>
+      <c r="AE20" s="6">
+        <f>+AE18+AE19</f>
+        <v>6784</v>
+      </c>
+      <c r="AF20" s="6">
         <v>7679</v>
       </c>
-      <c r="W20" s="6">
-        <f>+W18+W19</f>
+      <c r="AG20" s="6">
+        <f>+AG18+AG19</f>
         <v>9633</v>
       </c>
-      <c r="X20" s="6">
-        <f>X18+X19</f>
+      <c r="AH20" s="6">
+        <f>AH18+AH19</f>
         <v>12726</v>
       </c>
-      <c r="Y20" s="6">
-        <f>+Y12+Y11+Y10+Y4</f>
-        <v>14634.899999999998</v>
-      </c>
-      <c r="Z20" s="6">
-        <f>+Z10+Z11+Z12+Z4</f>
-        <v>15366.644999999999</v>
-      </c>
-      <c r="AA20" s="6">
-        <f t="shared" ref="AA20:AK20" si="31">+AA10+AA11+AA12+AA4</f>
-        <v>16134.97725</v>
-      </c>
-      <c r="AB20" s="6">
-        <f t="shared" si="31"/>
-        <v>16941.7261125</v>
-      </c>
-      <c r="AC20" s="6">
-        <f t="shared" si="31"/>
-        <v>17788.812418125002</v>
-      </c>
-      <c r="AD20" s="6">
-        <f t="shared" si="31"/>
-        <v>18678.253039031253</v>
-      </c>
-      <c r="AE20" s="6">
-        <f t="shared" si="31"/>
-        <v>19612.165690982816</v>
-      </c>
-      <c r="AF20" s="6">
-        <f t="shared" si="31"/>
-        <v>20592.773975531956</v>
-      </c>
-      <c r="AG20" s="6">
-        <f t="shared" si="31"/>
-        <v>21622.412674308554</v>
-      </c>
-      <c r="AH20" s="6">
-        <f t="shared" si="31"/>
-        <v>22703.533308023983</v>
-      </c>
       <c r="AI20" s="6">
-        <f t="shared" si="31"/>
-        <v>23838.709973425182</v>
+        <f>+AI12+AI11+AI10+AI4</f>
+        <v>14253</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="31"/>
-        <v>25030.645472096447</v>
+        <f>+AJ18+AJ19</f>
+        <v>16285</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="31"/>
-        <v>26282.177745701272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK20:AU20" si="24">+AK10+AK11+AK12+AK4</f>
+        <v>15713.932500000003</v>
+      </c>
+      <c r="AL20" s="6">
+        <f t="shared" si="24"/>
+        <v>16499.629125000003</v>
+      </c>
+      <c r="AM20" s="6">
+        <f t="shared" si="24"/>
+        <v>17324.610581250003</v>
+      </c>
+      <c r="AN20" s="6">
+        <f t="shared" si="24"/>
+        <v>18190.841110312504</v>
+      </c>
+      <c r="AO20" s="6">
+        <f t="shared" si="24"/>
+        <v>19100.383165828131</v>
+      </c>
+      <c r="AP20" s="6">
+        <f t="shared" si="24"/>
+        <v>20055.402324119539</v>
+      </c>
+      <c r="AQ20" s="6">
+        <f t="shared" si="24"/>
+        <v>21058.172440325514</v>
+      </c>
+      <c r="AR20" s="6">
+        <f t="shared" si="24"/>
+        <v>22111.081062341789</v>
+      </c>
+      <c r="AS20" s="6">
+        <f t="shared" si="24"/>
+        <v>23216.635115458877</v>
+      </c>
+      <c r="AT20" s="6">
+        <f t="shared" si="24"/>
+        <v>24377.466871231823</v>
+      </c>
+      <c r="AU20" s="6">
+        <f t="shared" si="24"/>
+        <v>25596.340214793418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <f>317</f>
@@ -2476,85 +2905,125 @@
         <v>559</v>
       </c>
       <c r="O21" s="2">
-        <f>+O20-O22</f>
-        <v>507.77099999999996</v>
+        <f>620+15</f>
+        <v>635</v>
       </c>
       <c r="P21" s="2">
-        <f>+P20-P22</f>
-        <v>676.26899999999978</v>
+        <f>708+24</f>
+        <v>732</v>
       </c>
       <c r="Q21" s="2">
-        <f>+Q20-Q22</f>
-        <v>1424.8959999999997</v>
+        <f>924+17</f>
+        <v>941</v>
       </c>
       <c r="R21" s="2">
-        <f>+R20-R22</f>
-        <v>610.74199999999973</v>
-      </c>
-      <c r="W21" s="3">
+        <f>656+16</f>
+        <v>672</v>
+      </c>
+      <c r="S21" s="2">
+        <f>707+15</f>
+        <v>722</v>
+      </c>
+      <c r="T21" s="2">
+        <f>796+23</f>
+        <v>819</v>
+      </c>
+      <c r="U21" s="2">
+        <f>1014+17</f>
+        <v>1031</v>
+      </c>
+      <c r="V21" s="2">
+        <f>733+14</f>
+        <v>747</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AB21" s="3">
+        <f>131+599</f>
+        <v>730</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>120+677</f>
+        <v>797</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>82+881</f>
+        <v>963</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>77+1070+20</f>
+        <v>1167</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>1284+22</f>
+        <v>1306</v>
+      </c>
+      <c r="AG21" s="3">
         <f>SUM(G21:J21)</f>
         <v>1633</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AH21" s="3">
         <f>SUM(K21:N21)</f>
         <v>2266</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AI21" s="3">
         <f>SUM(O21:R21)</f>
-        <v>3219.6779999999994</v>
-      </c>
-      <c r="Z21" s="2">
-        <f>+Z20-Z22</f>
-        <v>2612.3296499999997</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" ref="AA21:AK21" si="32">+AA20-AA22</f>
-        <v>2742.9461325000011</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="32"/>
-        <v>2880.0934391250012</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="32"/>
-        <v>3024.0981110812518</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="32"/>
-        <v>3175.3030166353146</v>
-      </c>
-      <c r="AE21" s="2">
-        <f t="shared" si="32"/>
-        <v>3334.0681674670795</v>
-      </c>
-      <c r="AF21" s="2">
-        <f t="shared" si="32"/>
-        <v>3500.7715758404338</v>
-      </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="32"/>
-        <v>3675.8101546324542</v>
-      </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="32"/>
-        <v>3859.6006623640787</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="32"/>
-        <v>4052.5806954822838</v>
+        <v>2980</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="32"/>
-        <v>4255.2097302563961</v>
+        <f>+AJ20-AJ22</f>
+        <v>2768.4500000000007</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="32"/>
-        <v>4467.9702167692158</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK21:AU21" si="25">+AK20-AK22</f>
+        <v>2671.3685250000017</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="25"/>
+        <v>2804.9369512500016</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" si="25"/>
+        <v>2945.1837988125008</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="25"/>
+        <v>3092.442988753126</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="25"/>
+        <v>3247.0651381907828</v>
+      </c>
+      <c r="AP21" s="2">
+        <f t="shared" si="25"/>
+        <v>3409.4183951003215</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="25"/>
+        <v>3579.8893148553398</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" si="25"/>
+        <v>3758.8837805981057</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" si="25"/>
+        <v>3946.8279696280115</v>
+      </c>
+      <c r="AT21" s="2">
+        <f t="shared" si="25"/>
+        <v>4144.1693681094112</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" si="25"/>
+        <v>4351.3778365148828</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2576,19 +3045,19 @@
         <v>3592</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:M22" si="33">J20-J21</f>
+        <f t="shared" ref="J22:M22" si="26">J20-J21</f>
         <v>2111</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1605</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>2150</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>4850</v>
       </c>
       <c r="N22" s="3">
@@ -2596,86 +3065,126 @@
         <v>1855</v>
       </c>
       <c r="O22" s="3">
-        <f>+O20*0.78</f>
-        <v>1800.2789999999998</v>
+        <f>+O20-O21</f>
+        <v>1962</v>
       </c>
       <c r="P22" s="3">
-        <f>+P20*0.78</f>
-        <v>2397.6809999999996</v>
+        <f>+P20-P21</f>
+        <v>2309</v>
       </c>
       <c r="Q22" s="3">
-        <f>+Q20*0.78</f>
-        <v>5051.9039999999995</v>
+        <f>+Q20-Q21</f>
+        <v>5077</v>
       </c>
       <c r="R22" s="3">
-        <f>+R20*0.78</f>
-        <v>2165.3580000000002</v>
-      </c>
-      <c r="W22" s="3">
-        <f>+W20-W21</f>
+        <f>+R20-R21</f>
+        <v>2040</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" ref="S22:V22" si="27">+S20-S21</f>
+        <v>2256</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="27"/>
+        <v>2567</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="27"/>
+        <v>5706</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="27"/>
+        <v>2437</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3">
+        <f t="shared" ref="AB22:AC22" si="28">+AB20-AB21</f>
+        <v>3964</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="28"/>
+        <v>4380</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>+AD20-AD21</f>
+        <v>5062</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>+AE20-AE21</f>
+        <v>5617</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>+AF20-AF21</f>
+        <v>6373</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>+AG20-AG21</f>
         <v>8000</v>
       </c>
-      <c r="X22" s="3">
-        <f>X20-X21</f>
+      <c r="AH22" s="3">
+        <f>AH20-AH21</f>
         <v>10460</v>
       </c>
-      <c r="Y22" s="3">
-        <f>+Y20-Y21</f>
-        <v>11415.221999999998</v>
-      </c>
-      <c r="Z22" s="2">
-        <f>+Z20*0.83</f>
-        <v>12754.315349999999</v>
-      </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22:AL22" si="34">+AA20*0.83</f>
-        <v>13392.031117499999</v>
-      </c>
-      <c r="AB22" s="2">
-        <f t="shared" si="34"/>
-        <v>14061.632673374999</v>
-      </c>
-      <c r="AC22" s="2">
-        <f t="shared" si="34"/>
-        <v>14764.714307043751</v>
-      </c>
-      <c r="AD22" s="2">
-        <f t="shared" si="34"/>
-        <v>15502.950022395939</v>
-      </c>
-      <c r="AE22" s="2">
-        <f t="shared" si="34"/>
-        <v>16278.097523515737</v>
-      </c>
-      <c r="AF22" s="2">
-        <f t="shared" si="34"/>
-        <v>17092.002399691522</v>
-      </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="34"/>
-        <v>17946.6025196761</v>
-      </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="34"/>
-        <v>18843.932645659905</v>
-      </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="34"/>
-        <v>19786.129277942899</v>
+      <c r="AI22" s="3">
+        <f>+AI20-AI21</f>
+        <v>11273</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="34"/>
-        <v>20775.43574184005</v>
+        <f>+AJ20*0.83</f>
+        <v>13516.55</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="34"/>
-        <v>21814.207528932056</v>
-      </c>
-      <c r="AL22" s="2"/>
-    </row>
-    <row r="23" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK22:AU22" si="29">+AK20*0.83</f>
+        <v>13042.563975000001</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="29"/>
+        <v>13694.692173750002</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="29"/>
+        <v>14379.426782437502</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="29"/>
+        <v>15098.398121559378</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="29"/>
+        <v>15853.318027637348</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="29"/>
+        <v>16645.983929019218</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="29"/>
+        <v>17478.283125470174</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="29"/>
+        <v>18352.197281743684</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="29"/>
+        <v>19269.807145830866</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" si="29"/>
+        <v>20233.297503122412</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" si="29"/>
+        <v>21244.962378278535</v>
+      </c>
+      <c r="AV22" s="2"/>
+    </row>
+    <row r="23" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2708,86 +3217,108 @@
         <v>807</v>
       </c>
       <c r="O23" s="2">
-        <f>+K23*1.05</f>
-        <v>577.5</v>
+        <v>795</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23:P25" si="35">+L23*1.05</f>
-        <v>989.1</v>
+        <v>924</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23:Q25" si="36">+M23*1.05</f>
-        <v>1288.3500000000001</v>
+        <v>1203</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23:R25" si="37">+N23*1.05</f>
-        <v>847.35</v>
-      </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3">
+        <v>840</v>
+      </c>
+      <c r="S23" s="2">
+        <v>769</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1020</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1419</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1104</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1289</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1420</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1631</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1927</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>2048</v>
+      </c>
+      <c r="AG23" s="3">
         <f>SUM(G23:J23)</f>
         <v>2644</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" ref="X23:X25" si="38">SUM(K23:N23)</f>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23:AH25" si="30">SUM(K23:N23)</f>
         <v>3526</v>
       </c>
-      <c r="Y23" s="3">
-        <f t="shared" ref="Y23:Y25" si="39">SUM(O23:R23)</f>
-        <v>3702.2999999999997</v>
-      </c>
-      <c r="Z23" s="2">
-        <f>+Y23*1.01</f>
-        <v>3739.3229999999999</v>
-      </c>
-      <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AK23" si="40">+Z23*1.01</f>
-        <v>3776.71623</v>
-      </c>
-      <c r="AB23" s="2">
-        <f t="shared" si="40"/>
-        <v>3814.4833923000001</v>
-      </c>
-      <c r="AC23" s="2">
-        <f t="shared" si="40"/>
-        <v>3852.6282262230002</v>
-      </c>
-      <c r="AD23" s="2">
-        <f t="shared" si="40"/>
-        <v>3891.1545084852301</v>
-      </c>
-      <c r="AE23" s="2">
-        <f t="shared" si="40"/>
-        <v>3930.0660535700822</v>
-      </c>
-      <c r="AF23" s="2">
-        <f t="shared" si="40"/>
-        <v>3969.3667141057831</v>
-      </c>
-      <c r="AG23" s="2">
-        <f t="shared" si="40"/>
-        <v>4009.0603812468412</v>
-      </c>
-      <c r="AH23" s="2">
-        <f t="shared" si="40"/>
-        <v>4049.1509850593097</v>
-      </c>
-      <c r="AI23" s="2">
-        <f t="shared" si="40"/>
-        <v>4089.6424949099028</v>
+      <c r="AI23" s="3">
+        <f t="shared" ref="AI23:AI25" si="31">SUM(O23:R23)</f>
+        <v>3762</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="40"/>
-        <v>4130.5389198590019</v>
+        <f>+AI23*1.01</f>
+        <v>3799.62</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="40"/>
-        <v>4171.844309057592</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK23:AU23" si="32">+AJ23*1.01</f>
+        <v>3837.6161999999999</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="32"/>
+        <v>3875.992362</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="32"/>
+        <v>3914.7522856199998</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="32"/>
+        <v>3953.8998084761997</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="32"/>
+        <v>3993.4388065609619</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="32"/>
+        <v>4033.3731946265716</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="32"/>
+        <v>4073.7069265728373</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="32"/>
+        <v>4114.4439958385656</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="32"/>
+        <v>4155.5884357969517</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="32"/>
+        <v>4197.1443201549209</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="32"/>
+        <v>4239.1157633564699</v>
+      </c>
+    </row>
+    <row r="24" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2820,86 +3351,108 @@
         <v>627</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" ref="O24:O25" si="41">+K24*1.05</f>
-        <v>556.5</v>
+        <v>625</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="35"/>
-        <v>619.5</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="36"/>
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="37"/>
-        <v>658.35</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3">
+        <v>680</v>
+      </c>
+      <c r="S24" s="2">
+        <v>680</v>
+      </c>
+      <c r="T24" s="2">
+        <v>678</v>
+      </c>
+      <c r="U24" s="2">
+        <v>671</v>
+      </c>
+      <c r="V24" s="2">
+        <v>725</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>881</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>998</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1186</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1233</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>1392</v>
+      </c>
+      <c r="AG24" s="3">
         <f>SUM(G24:J24)</f>
         <v>1678</v>
       </c>
-      <c r="X24" s="3">
-        <f t="shared" si="38"/>
+      <c r="AH24" s="3">
+        <f t="shared" si="30"/>
         <v>2347</v>
       </c>
-      <c r="Y24" s="3">
-        <f t="shared" si="39"/>
-        <v>2464.35</v>
-      </c>
-      <c r="Z24" s="2">
-        <f t="shared" ref="Z24:AK24" si="42">+Y24*1.01</f>
-        <v>2488.9935</v>
-      </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="42"/>
-        <v>2513.8834350000002</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="42"/>
-        <v>2539.02226935</v>
-      </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="42"/>
-        <v>2564.4124920435002</v>
-      </c>
-      <c r="AD24" s="2">
-        <f t="shared" si="42"/>
-        <v>2590.0566169639351</v>
-      </c>
-      <c r="AE24" s="2">
-        <f t="shared" si="42"/>
-        <v>2615.9571831335743</v>
-      </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="42"/>
-        <v>2642.1167549649099</v>
-      </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="42"/>
-        <v>2668.5379225145589</v>
-      </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="42"/>
-        <v>2695.2233017397043</v>
-      </c>
-      <c r="AI24" s="2">
-        <f t="shared" si="42"/>
-        <v>2722.1755347571016</v>
+      <c r="AI24" s="3">
+        <f t="shared" si="31"/>
+        <v>2539</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="42"/>
-        <v>2749.3972901046727</v>
+        <f t="shared" ref="AJ24:AU24" si="33">+AI24*1.01</f>
+        <v>2564.39</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="42"/>
-        <v>2776.8912630057193</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>2590.0338999999999</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="33"/>
+        <v>2615.9342389999997</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="33"/>
+        <v>2642.0935813899996</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="33"/>
+        <v>2668.5145172038997</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="33"/>
+        <v>2695.1996623759387</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="33"/>
+        <v>2722.1516589996982</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f t="shared" si="33"/>
+        <v>2749.3731755896952</v>
+      </c>
+      <c r="AR24" s="2">
+        <f t="shared" si="33"/>
+        <v>2776.8669073455922</v>
+      </c>
+      <c r="AS24" s="2">
+        <f t="shared" si="33"/>
+        <v>2804.635576419048</v>
+      </c>
+      <c r="AT24" s="2">
+        <f t="shared" si="33"/>
+        <v>2832.6819321832386</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" si="33"/>
+        <v>2861.0087515050709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2932,116 +3485,138 @@
         <v>334</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="41"/>
-        <v>275.10000000000002</v>
+        <v>304</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="35"/>
-        <v>418.95000000000005</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="36"/>
-        <v>488.25</v>
+        <v>332</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="37"/>
-        <v>350.7</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3">
+        <v>341</v>
+      </c>
+      <c r="S25" s="2">
+        <v>342</v>
+      </c>
+      <c r="T25" s="2">
+        <v>344</v>
+      </c>
+      <c r="U25" s="2">
+        <v>355</v>
+      </c>
+      <c r="V25" s="2">
+        <v>377</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>518</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>553</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>664</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>597</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>679</v>
+      </c>
+      <c r="AG25" s="3">
         <f>SUM(G25:J25)</f>
         <v>982</v>
       </c>
-      <c r="X25" s="3">
-        <f t="shared" si="38"/>
+      <c r="AH25" s="3">
+        <f t="shared" si="30"/>
         <v>1460</v>
       </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="39"/>
-        <v>1533.0000000000002</v>
-      </c>
-      <c r="Z25" s="2">
-        <f t="shared" ref="Z25:AK25" si="43">+Y25*1.01</f>
-        <v>1548.3300000000002</v>
-      </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="43"/>
-        <v>1563.8133000000003</v>
-      </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="43"/>
-        <v>1579.4514330000002</v>
-      </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="43"/>
-        <v>1595.2459473300003</v>
-      </c>
-      <c r="AD25" s="2">
-        <f t="shared" si="43"/>
-        <v>1611.1984068033003</v>
-      </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="43"/>
-        <v>1627.3103908713333</v>
-      </c>
-      <c r="AF25" s="2">
-        <f t="shared" si="43"/>
-        <v>1643.5834947800467</v>
-      </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="43"/>
-        <v>1660.0193297278472</v>
-      </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="43"/>
-        <v>1676.6195230251258</v>
-      </c>
-      <c r="AI25" s="2">
-        <f t="shared" si="43"/>
-        <v>1693.385718255377</v>
+      <c r="AI25" s="3">
+        <f t="shared" si="31"/>
+        <v>1300</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="43"/>
-        <v>1710.3195754379308</v>
+        <f t="shared" ref="AJ25:AU25" si="34">+AI25*1.01</f>
+        <v>1313</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="43"/>
-        <v>1727.4227711923102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>1326.13</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="34"/>
+        <v>1339.3913000000002</v>
+      </c>
+      <c r="AM25" s="2">
+        <f t="shared" si="34"/>
+        <v>1352.7852130000003</v>
+      </c>
+      <c r="AN25" s="2">
+        <f t="shared" si="34"/>
+        <v>1366.3130651300003</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" si="34"/>
+        <v>1379.9761957813002</v>
+      </c>
+      <c r="AP25" s="2">
+        <f t="shared" si="34"/>
+        <v>1393.7759577391132</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f t="shared" si="34"/>
+        <v>1407.7137173165042</v>
+      </c>
+      <c r="AR25" s="2">
+        <f t="shared" si="34"/>
+        <v>1421.7908544896693</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="34"/>
+        <v>1436.0087630345661</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="34"/>
+        <v>1450.3688506649116</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" si="34"/>
+        <v>1464.8725391715607</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
-        <f t="shared" ref="F26:L26" si="44">SUM(F23:F25)</f>
+        <f t="shared" ref="F26:L26" si="35">SUM(F23:F25)</f>
         <v>1010</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>856</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>1198</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>1610</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>1640</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>1342</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>1931</v>
       </c>
       <c r="M26" s="3">
@@ -3053,116 +3628,155 @@
         <v>1768</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" ref="O26:R26" si="45">SUM(O23:O25)</f>
-        <v>1409.1</v>
+        <f t="shared" ref="O26" si="36">SUM(O23:O25)</f>
+        <v>1724</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="45"/>
-        <v>2027.55</v>
+        <f t="shared" ref="P26:S26" si="37">SUM(P23:P25)</f>
+        <v>1877</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="45"/>
-        <v>2406.6000000000004</v>
+        <f t="shared" si="37"/>
+        <v>2139</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="45"/>
-        <v>1856.4</v>
-      </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3">
-        <f>SUM(W23:W25)</f>
+        <f t="shared" si="37"/>
+        <v>1861</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="37"/>
+        <v>1791</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" ref="T26:V26" si="38">SUM(T23:T25)</f>
+        <v>2042</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="38"/>
+        <v>2445</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="38"/>
+        <v>2206</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3">
+        <f t="shared" ref="AB26:AC26" si="39">SUM(AB23:AB25)</f>
+        <v>2688</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="39"/>
+        <v>2971</v>
+      </c>
+      <c r="AD26" s="3">
+        <f>SUM(AD23:AD25)</f>
+        <v>3481</v>
+      </c>
+      <c r="AE26" s="3">
+        <f>SUM(AE23:AE25)</f>
+        <v>3757</v>
+      </c>
+      <c r="AF26" s="3">
+        <f>SUM(AF23:AF25)</f>
+        <v>4119</v>
+      </c>
+      <c r="AG26" s="3">
+        <f>SUM(AG23:AG25)</f>
         <v>5304</v>
       </c>
-      <c r="X26" s="3">
-        <f>SUM(X23:X25)</f>
+      <c r="AH26" s="3">
+        <f>SUM(AH23:AH25)</f>
         <v>7333</v>
       </c>
-      <c r="Y26" s="3">
-        <f>SUM(Y23:Y25)</f>
-        <v>7699.65</v>
-      </c>
-      <c r="Z26" s="3">
-        <f t="shared" ref="Z26:AK26" si="46">SUM(Z23:Z25)</f>
-        <v>7776.6464999999998</v>
-      </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="46"/>
-        <v>7854.4129649999995</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="46"/>
-        <v>7932.9570946500007</v>
-      </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="46"/>
-        <v>8012.2866655965008</v>
-      </c>
-      <c r="AD26" s="3">
-        <f t="shared" si="46"/>
-        <v>8092.4095322524645</v>
-      </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="46"/>
-        <v>8173.3336275749898</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="46"/>
-        <v>8255.0669638507388</v>
-      </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="46"/>
-        <v>8337.617633489248</v>
-      </c>
-      <c r="AH26" s="3">
-        <f t="shared" si="46"/>
-        <v>8420.99380982414</v>
-      </c>
       <c r="AI26" s="3">
-        <f t="shared" si="46"/>
-        <v>8505.2037479223818</v>
+        <f>SUM(AI23:AI25)</f>
+        <v>7601</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="46"/>
-        <v>8590.255785401605</v>
+        <f t="shared" ref="AJ26:AU26" si="40">SUM(AJ23:AJ25)</f>
+        <v>7677.01</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="46"/>
-        <v>8676.1583432556217</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>7753.7800999999999</v>
+      </c>
+      <c r="AL26" s="3">
+        <f t="shared" si="40"/>
+        <v>7831.3179009999994</v>
+      </c>
+      <c r="AM26" s="3">
+        <f t="shared" si="40"/>
+        <v>7909.6310800099991</v>
+      </c>
+      <c r="AN26" s="3">
+        <f t="shared" si="40"/>
+        <v>7988.7273908100997</v>
+      </c>
+      <c r="AO26" s="3">
+        <f t="shared" si="40"/>
+        <v>8068.6146647182013</v>
+      </c>
+      <c r="AP26" s="3">
+        <f t="shared" si="40"/>
+        <v>8149.3008113653832</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f t="shared" si="40"/>
+        <v>8230.7938194790368</v>
+      </c>
+      <c r="AR26" s="3">
+        <f t="shared" si="40"/>
+        <v>8313.1017576738268</v>
+      </c>
+      <c r="AS26" s="3">
+        <f t="shared" si="40"/>
+        <v>8396.2327752505662</v>
+      </c>
+      <c r="AT26" s="3">
+        <f t="shared" si="40"/>
+        <v>8480.1951030030723</v>
+      </c>
+      <c r="AU26" s="3">
+        <f t="shared" si="40"/>
+        <v>8564.9970540331014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <f t="shared" ref="F27:L27" si="47">F22-F26</f>
+        <f t="shared" ref="F27:L27" si="41">F22-F26</f>
         <v>489</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>218</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1982</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>471</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>263</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>219</v>
       </c>
       <c r="M27" s="3">
@@ -3174,86 +3788,125 @@
         <v>87</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" ref="O27:R27" si="48">O22-O26</f>
-        <v>391.17899999999986</v>
+        <f t="shared" ref="O27" si="42">O22-O26</f>
+        <v>238</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="48"/>
-        <v>370.13099999999963</v>
+        <f t="shared" ref="P27:S27" si="43">P22-P26</f>
+        <v>432</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="48"/>
-        <v>2645.3039999999992</v>
+        <f t="shared" si="43"/>
+        <v>2938</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="48"/>
-        <v>308.95800000000008</v>
-      </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3">
-        <f>W22-W26</f>
+        <f t="shared" si="43"/>
+        <v>179</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="43"/>
+        <v>465</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" ref="T27:V27" si="44">T22-T26</f>
+        <v>525</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="44"/>
+        <v>3261</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="44"/>
+        <v>231</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3">
+        <f t="shared" ref="AB27:AC27" si="45">AB22-AB26</f>
+        <v>1276</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" si="45"/>
+        <v>1409</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>AD22-AD26</f>
+        <v>1581</v>
+      </c>
+      <c r="AE27" s="3">
+        <f>AE22-AE26</f>
+        <v>1860</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>AF22-AF26</f>
+        <v>2254</v>
+      </c>
+      <c r="AG27" s="3">
+        <f>AG22-AG26</f>
         <v>2696</v>
       </c>
-      <c r="X27" s="3">
-        <f>X22-X26</f>
+      <c r="AH27" s="3">
+        <f>AH22-AH26</f>
         <v>3127</v>
       </c>
-      <c r="Y27" s="3">
-        <f t="shared" ref="Y27" si="49">Y22-Y26</f>
-        <v>3715.5719999999983</v>
-      </c>
-      <c r="Z27" s="3">
-        <f t="shared" ref="Z27" si="50">Z22-Z26</f>
-        <v>4977.6688499999991</v>
-      </c>
-      <c r="AA27" s="3">
-        <f t="shared" ref="AA27" si="51">AA22-AA26</f>
-        <v>5537.6181524999993</v>
-      </c>
-      <c r="AB27" s="3">
-        <f t="shared" ref="AB27" si="52">AB22-AB26</f>
-        <v>6128.6755787249986</v>
-      </c>
-      <c r="AC27" s="3">
-        <f t="shared" ref="AC27" si="53">AC22-AC26</f>
-        <v>6752.4276414472497</v>
-      </c>
-      <c r="AD27" s="3">
-        <f t="shared" ref="AD27" si="54">AD22-AD26</f>
-        <v>7410.540490143474</v>
-      </c>
-      <c r="AE27" s="3">
-        <f t="shared" ref="AE27" si="55">AE22-AE26</f>
-        <v>8104.7638959407468</v>
-      </c>
-      <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="56">AF22-AF26</f>
-        <v>8836.9354358407836</v>
-      </c>
-      <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="57">AG22-AG26</f>
-        <v>9608.9848861868522</v>
-      </c>
-      <c r="AH27" s="3">
-        <f t="shared" ref="AH27" si="58">AH22-AH26</f>
-        <v>10422.938835835765</v>
-      </c>
       <c r="AI27" s="3">
-        <f t="shared" ref="AI27" si="59">AI22-AI26</f>
-        <v>11280.925530020517</v>
+        <f t="shared" ref="AI27" si="46">AI22-AI26</f>
+        <v>3672</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="60">AJ22-AJ26</f>
-        <v>12185.179956438446</v>
+        <f t="shared" ref="AJ27" si="47">AJ22-AJ26</f>
+        <v>5839.5399999999991</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" ref="AK27" si="61">AK22-AK26</f>
-        <v>13138.049185676435</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK27" si="48">AK22-AK26</f>
+        <v>5288.783875000001</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" ref="AL27" si="49">AL22-AL26</f>
+        <v>5863.3742727500021</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" ref="AM27" si="50">AM22-AM26</f>
+        <v>6469.7957024275029</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" ref="AN27" si="51">AN22-AN26</f>
+        <v>7109.6707307492779</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" ref="AO27" si="52">AO22-AO26</f>
+        <v>7784.7033629191465</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" ref="AP27" si="53">AP22-AP26</f>
+        <v>8496.6831176538344</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27" si="54">AQ22-AQ26</f>
+        <v>9247.4893059911374</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" ref="AR27" si="55">AR22-AR26</f>
+        <v>10039.095524069857</v>
+      </c>
+      <c r="AS27" s="3">
+        <f t="shared" ref="AS27" si="56">AS22-AS26</f>
+        <v>10873.5743705803</v>
+      </c>
+      <c r="AT27" s="3">
+        <f t="shared" ref="AT27" si="57">AT22-AT26</f>
+        <v>11753.10240011934</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" ref="AU27" si="58">AU22-AU26</f>
+        <v>12679.965324245433</v>
+      </c>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1">
         <f>-7+10</f>
@@ -3291,157 +3944,237 @@
         <v>-24</v>
       </c>
       <c r="O28" s="2">
-        <f>AVERAGE(K28:N28)</f>
-        <v>-7.25</v>
+        <f>-49+5</f>
+        <v>-44</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:R28" si="62">AVERAGE(L28:O28)</f>
-        <v>-19.8125</v>
+        <f>-65+23</f>
+        <v>-42</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="62"/>
-        <v>-18.265625</v>
+        <f>-66+22</f>
+        <v>-44</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="62"/>
-        <v>-17.33203125</v>
-      </c>
-      <c r="W28" s="3">
+        <f t="shared" ref="R28" si="59">AVERAGE(N28:Q28)</f>
+        <v>-38.5</v>
+      </c>
+      <c r="S28" s="2">
+        <f>-65+22</f>
+        <v>-43</v>
+      </c>
+      <c r="T28" s="2">
+        <f>-57+42</f>
+        <v>-15</v>
+      </c>
+      <c r="U28" s="2">
+        <f>-60+27</f>
+        <v>-33</v>
+      </c>
+      <c r="V28" s="2">
+        <f>-60+71</f>
+        <v>11</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AB28" s="3">
+        <f>-35-4</f>
+        <v>-39</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>-31+3</f>
+        <v>-28</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>-20+26</f>
+        <v>6</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>-15+42</f>
+        <v>27</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>-14+36</f>
+        <v>22</v>
+      </c>
+      <c r="AG28" s="3">
         <f>SUM(G28:J28)</f>
         <v>56</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" ref="X28:X30" si="63">SUM(K28:N28)</f>
+      <c r="AH28" s="3">
+        <f t="shared" ref="AH28" si="60">SUM(K28:N28)</f>
         <v>-29</v>
       </c>
-      <c r="Y28" s="3">
-        <f t="shared" ref="Y28" si="64">SUM(O28:R28)</f>
-        <v>-62.66015625</v>
-      </c>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AI28" s="3">
+        <f t="shared" ref="AI28" si="61">SUM(O28:R28)</f>
+        <v>-168.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <f t="shared" ref="F29:L29" si="65">F27+F28</f>
+        <f t="shared" ref="F29:L29" si="62">F27+F28</f>
         <v>492</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="62"/>
+        <v>219</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="62"/>
+        <v>72</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="62"/>
+        <v>1989</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="62"/>
+        <v>472</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="62"/>
+        <v>306</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="62"/>
+        <v>193</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" ref="M29:R29" si="63">M27+M28</f>
+        <v>2536</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="63"/>
+        <v>63</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="63"/>
+        <v>194</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="63"/>
+        <v>390</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="63"/>
+        <v>2894</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="63"/>
+        <v>140.5</v>
+      </c>
+      <c r="S29" s="3">
+        <f>+S27+S28</f>
+        <v>422</v>
+      </c>
+      <c r="T29" s="3">
+        <f>+T27+T28</f>
+        <v>510</v>
+      </c>
+      <c r="U29" s="3">
+        <f>+U27+U28</f>
+        <v>3228</v>
+      </c>
+      <c r="V29" s="3">
+        <f>+V27+V28</f>
+        <v>242</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3">
+        <f t="shared" ref="AB29:AC29" si="64">AB27+AB28</f>
+        <v>1237</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" si="64"/>
+        <v>1381</v>
+      </c>
+      <c r="AD29" s="3">
+        <f>AD27+AD28</f>
+        <v>1587</v>
+      </c>
+      <c r="AE29" s="3">
+        <f>AE27+AE28</f>
+        <v>1887</v>
+      </c>
+      <c r="AF29" s="3">
+        <f>AF27+AF28</f>
+        <v>2276</v>
+      </c>
+      <c r="AG29" s="3">
+        <f>AG27+AG28</f>
+        <v>2752</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>AH27+AH28</f>
+        <v>3098</v>
+      </c>
+      <c r="AI29" s="3">
+        <f>AI27+AI28</f>
+        <v>3503.5</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" ref="AJ29:AU29" si="65">AJ27+AJ28</f>
+        <v>5839.5399999999991</v>
+      </c>
+      <c r="AK29" s="3">
         <f t="shared" si="65"/>
-        <v>219</v>
-      </c>
-      <c r="H29" s="3">
+        <v>5288.783875000001</v>
+      </c>
+      <c r="AL29" s="3">
         <f t="shared" si="65"/>
-        <v>72</v>
-      </c>
-      <c r="I29" s="3">
+        <v>5863.3742727500021</v>
+      </c>
+      <c r="AM29" s="3">
         <f t="shared" si="65"/>
-        <v>1989</v>
-      </c>
-      <c r="J29" s="3">
+        <v>6469.7957024275029</v>
+      </c>
+      <c r="AN29" s="3">
         <f t="shared" si="65"/>
-        <v>472</v>
-      </c>
-      <c r="K29" s="3">
+        <v>7109.6707307492779</v>
+      </c>
+      <c r="AO29" s="3">
         <f t="shared" si="65"/>
-        <v>306</v>
-      </c>
-      <c r="L29" s="3">
+        <v>7784.7033629191465</v>
+      </c>
+      <c r="AP29" s="3">
         <f t="shared" si="65"/>
-        <v>193</v>
-      </c>
-      <c r="M29" s="3">
-        <f>M27+M28</f>
-        <v>2536</v>
-      </c>
-      <c r="N29" s="3">
-        <f>N27+N28</f>
-        <v>63</v>
-      </c>
-      <c r="O29" s="3">
-        <f>O27+O28</f>
-        <v>383.92899999999986</v>
-      </c>
-      <c r="P29" s="3">
-        <f>P27+P28</f>
-        <v>350.31849999999963</v>
-      </c>
-      <c r="Q29" s="3">
-        <f>Q27+Q28</f>
-        <v>2627.0383749999992</v>
-      </c>
-      <c r="R29" s="3">
-        <f>R27+R28</f>
-        <v>291.62596875000008</v>
-      </c>
-      <c r="W29" s="3">
-        <f>W27+W28</f>
-        <v>2752</v>
-      </c>
-      <c r="X29" s="3">
-        <f>X27+X28</f>
-        <v>3098</v>
-      </c>
-      <c r="Y29" s="3">
-        <f>Y27+Y28</f>
-        <v>3652.9118437499983</v>
-      </c>
-      <c r="Z29" s="3">
-        <f t="shared" ref="Z29:AK29" si="66">Z27+Z28</f>
-        <v>4977.6688499999991</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="66"/>
-        <v>5537.6181524999993</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="66"/>
-        <v>6128.6755787249986</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="66"/>
-        <v>6752.4276414472497</v>
-      </c>
-      <c r="AD29" s="3">
-        <f t="shared" si="66"/>
-        <v>7410.540490143474</v>
-      </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="66"/>
-        <v>8104.7638959407468</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="66"/>
-        <v>8836.9354358407836</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="66"/>
-        <v>9608.9848861868522</v>
-      </c>
-      <c r="AH29" s="3">
-        <f t="shared" si="66"/>
-        <v>10422.938835835765</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="66"/>
-        <v>11280.925530020517</v>
-      </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="66"/>
-        <v>12185.179956438446</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="66"/>
-        <v>13138.049185676435</v>
-      </c>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+        <v>8496.6831176538344</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" si="65"/>
+        <v>9247.4893059911374</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" si="65"/>
+        <v>10039.095524069857</v>
+      </c>
+      <c r="AS29" s="3">
+        <f t="shared" si="65"/>
+        <v>10873.5743705803</v>
+      </c>
+      <c r="AT29" s="3">
+        <f t="shared" si="65"/>
+        <v>11753.10240011934</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="65"/>
+        <v>12679.965324245433</v>
+      </c>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1">
         <v>41</v>
@@ -3471,115 +4204,143 @@
         <v>-43</v>
       </c>
       <c r="O30" s="2">
-        <f>+O29*0.15</f>
-        <v>57.589349999999975</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:R30" si="67">+P29*0.15</f>
-        <v>52.547774999999945</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="67"/>
-        <v>394.05575624999989</v>
+        <v>647</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="67"/>
-        <v>43.743895312500008</v>
-      </c>
-      <c r="W30" s="3">
+        <f t="shared" ref="R30" si="66">+R29*0.15</f>
+        <v>21.074999999999999</v>
+      </c>
+      <c r="S30" s="2">
+        <v>23</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>683</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="3">
+        <v>397</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>396</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>237</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>324</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>372</v>
+      </c>
+      <c r="AG30" s="3">
         <f>SUM(G30:J30)</f>
         <v>494</v>
       </c>
-      <c r="X30" s="3">
+      <c r="AH30" s="3">
         <f>SUM(K30:N30)</f>
         <v>476</v>
       </c>
-      <c r="Y30" s="3">
-        <f>+Y29*0.15</f>
-        <v>547.93677656249974</v>
-      </c>
-      <c r="Z30" s="2">
-        <f>+Z29*0.15</f>
-        <v>746.65032749999989</v>
-      </c>
-      <c r="AA30" s="2">
-        <f t="shared" ref="AA30:AK30" si="68">+AA29*0.15</f>
-        <v>830.64272287499989</v>
-      </c>
-      <c r="AB30" s="2">
-        <f t="shared" si="68"/>
-        <v>919.30133680874974</v>
-      </c>
-      <c r="AC30" s="2">
-        <f t="shared" si="68"/>
-        <v>1012.8641462170874</v>
-      </c>
-      <c r="AD30" s="2">
-        <f t="shared" si="68"/>
-        <v>1111.5810735215211</v>
-      </c>
-      <c r="AE30" s="2">
-        <f t="shared" si="68"/>
-        <v>1215.7145843911119</v>
-      </c>
-      <c r="AF30" s="2">
-        <f t="shared" si="68"/>
-        <v>1325.5403153761174</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="68"/>
-        <v>1441.3477329280279</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="68"/>
-        <v>1563.4408253753647</v>
-      </c>
-      <c r="AI30" s="2">
-        <f t="shared" si="68"/>
-        <v>1692.1388295030774</v>
+      <c r="AI30" s="3">
+        <f>+AI29*0.15</f>
+        <v>525.52499999999998</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="68"/>
-        <v>1827.7769934657667</v>
+        <f>+AJ29*0.15</f>
+        <v>875.93099999999981</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" si="68"/>
-        <v>1970.707377851465</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK30:AU30" si="67">+AK29*0.15</f>
+        <v>793.3175812500001</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="67"/>
+        <v>879.50614091250031</v>
+      </c>
+      <c r="AM30" s="2">
+        <f t="shared" si="67"/>
+        <v>970.46935536412536</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" si="67"/>
+        <v>1066.4506096123916</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" si="67"/>
+        <v>1167.7055044378719</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="67"/>
+        <v>1274.502467648075</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f t="shared" si="67"/>
+        <v>1387.1233958986707</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" si="67"/>
+        <v>1505.8643286104784</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" si="67"/>
+        <v>1631.036155587045</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" si="67"/>
+        <v>1762.965360017901</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" si="67"/>
+        <v>1901.9947986368149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <f t="shared" ref="F31:L31" si="69">F29-F30</f>
+        <f t="shared" ref="F31:L31" si="68">F29-F30</f>
         <v>451</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>207</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>70</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>1532</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>449</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>296</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>263</v>
       </c>
       <c r="M31" s="3">
@@ -3591,203 +4352,283 @@
         <v>106</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" ref="O31:R31" si="70">O29-O30</f>
-        <v>326.33964999999989</v>
+        <f t="shared" ref="O31" si="69">O29-O30</f>
+        <v>194</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="70"/>
-        <v>297.77072499999969</v>
+        <f t="shared" ref="P31:R31" si="70">P29-P30</f>
+        <v>330</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="70"/>
-        <v>2232.9826187499993</v>
+        <v>2247</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="70"/>
-        <v>247.88207343750008</v>
-      </c>
-      <c r="W31" s="3">
-        <f>W29-W30</f>
-        <v>2258</v>
-      </c>
-      <c r="X31" s="3">
-        <f>X29-X30</f>
-        <v>2622</v>
-      </c>
-      <c r="Y31" s="3">
-        <f>Y29-Y30</f>
-        <v>3104.9750671874986</v>
-      </c>
-      <c r="Z31" s="3">
-        <f t="shared" ref="Z31:AK31" si="71">Z29-Z30</f>
-        <v>4231.0185224999996</v>
-      </c>
-      <c r="AA31" s="3">
-        <f t="shared" si="71"/>
-        <v>4706.9754296249994</v>
-      </c>
+        <v>119.425</v>
+      </c>
+      <c r="S31" s="3">
+        <f>+S29-S30</f>
+        <v>399</v>
+      </c>
+      <c r="T31" s="3">
+        <f>+T29-T30</f>
+        <v>509</v>
+      </c>
+      <c r="U31" s="3">
+        <f>+U29-U30</f>
+        <v>2545</v>
+      </c>
+      <c r="V31" s="3">
+        <f>+V29-V30</f>
+        <v>242</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
       <c r="AB31" s="3">
-        <f t="shared" si="71"/>
-        <v>5209.374241916249</v>
+        <f t="shared" ref="AB31:AC31" si="71">AB29-AB30</f>
+        <v>840</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" si="71"/>
-        <v>5739.5634952301625</v>
+        <v>985</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="71"/>
-        <v>6298.9594166219531</v>
+        <f>AD29-AD30</f>
+        <v>1350</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="71"/>
-        <v>6889.0493115496347</v>
+        <f>AE29-AE30</f>
+        <v>1563</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="71"/>
-        <v>7511.3951204646664</v>
+        <f>AF29-AF30</f>
+        <v>1904</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" si="71"/>
-        <v>8167.6371532588246</v>
+        <f>AG29-AG30</f>
+        <v>2258</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="71"/>
-        <v>8859.4980104604001</v>
+        <f>AH29-AH30</f>
+        <v>2622</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="71"/>
-        <v>9588.7867005174394</v>
+        <f>AI29-AI30</f>
+        <v>2977.9749999999999</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" si="71"/>
-        <v>10357.402962972679</v>
+        <f t="shared" ref="AJ31:AU31" si="72">AJ29-AJ30</f>
+        <v>4963.6089999999995</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="71"/>
-        <v>11167.341807824971</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="72"/>
+        <v>4495.4662937500007</v>
+      </c>
+      <c r="AL31" s="3">
+        <f t="shared" si="72"/>
+        <v>4983.868131837502</v>
+      </c>
+      <c r="AM31" s="3">
+        <f t="shared" si="72"/>
+        <v>5499.3263470633774</v>
+      </c>
+      <c r="AN31" s="3">
+        <f t="shared" si="72"/>
+        <v>6043.2201211368865</v>
+      </c>
+      <c r="AO31" s="3">
+        <f t="shared" si="72"/>
+        <v>6616.9978584812743</v>
+      </c>
+      <c r="AP31" s="3">
+        <f t="shared" si="72"/>
+        <v>7222.1806500057592</v>
+      </c>
+      <c r="AQ31" s="3">
+        <f t="shared" si="72"/>
+        <v>7860.3659100924669</v>
+      </c>
+      <c r="AR31" s="3">
+        <f t="shared" si="72"/>
+        <v>8533.2311954593788</v>
+      </c>
+      <c r="AS31" s="3">
+        <f t="shared" si="72"/>
+        <v>9242.5382149932557</v>
+      </c>
+      <c r="AT31" s="3">
+        <f t="shared" si="72"/>
+        <v>9990.1370401014392</v>
+      </c>
+      <c r="AU31" s="3">
+        <f t="shared" si="72"/>
+        <v>10777.970525608618</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:N32" si="72">F31/F33</f>
+        <f t="shared" ref="F32:N32" si="73">F31/F33</f>
         <v>1.7083333333333333</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.78113207547169816</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.25641025641025639</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5.5507246376811592</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.6209386281588447</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.0685920577617329</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.91637630662020908</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6.8426573426573425</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.37588652482269502</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" ref="O32" si="73">O31/O33</f>
-        <v>1.1572328014184394</v>
+        <f t="shared" ref="O32:P32" si="74">O31/O33</f>
+        <v>0.68309859154929575</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" ref="P32" si="74">P31/P33</f>
-        <v>1.0559245567375874</v>
+        <f t="shared" si="74"/>
+        <v>1.1702127659574468</v>
       </c>
       <c r="Q32" s="7">
         <f t="shared" ref="Q32" si="75">Q31/Q33</f>
-        <v>7.9183780806737563</v>
+        <v>7.9399293286219077</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" ref="R32" si="76">R31/R33</f>
-        <v>0.87901444481383006</v>
-      </c>
-      <c r="W32" s="7">
-        <f>W31/W33</f>
+        <v>0.4219964664310954</v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" ref="S32:T32" si="77">S31/S33</f>
+        <v>1.4098939929328622</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="77"/>
+        <v>1.7922535211267605</v>
+      </c>
+      <c r="U32" s="7">
+        <f t="shared" ref="U32:V32" si="78">U31/U33</f>
+        <v>8.9612676056338021</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="78"/>
+        <v>0.86428571428571432</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AB32" s="7">
+        <f t="shared" ref="AB32:AC32" si="79">AB31/AB33</f>
+        <v>3.1698113207547172</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="79"/>
+        <v>3.7739463601532566</v>
+      </c>
+      <c r="AD32" s="7">
+        <f>AD31/AD33</f>
+        <v>5.1724137931034484</v>
+      </c>
+      <c r="AE32" s="7">
+        <f>AE31/AE33</f>
+        <v>5.9204545454545459</v>
+      </c>
+      <c r="AF32" s="7">
+        <f>AF31/AF33</f>
+        <v>7.2121212121212119</v>
+      </c>
+      <c r="AG32" s="7">
+        <f>AG31/AG33</f>
         <v>8.2786434463794691</v>
       </c>
-      <c r="X32" s="7">
-        <f>X31/X33</f>
+      <c r="AH32" s="7">
+        <f>AH31/AH33</f>
         <v>9.2650176678445231</v>
       </c>
-      <c r="Y32" s="7">
-        <f>Y31/Y33</f>
-        <v>11.010549883643613</v>
-      </c>
-      <c r="Z32" s="7">
-        <f t="shared" ref="Z32:AK32" si="77">Z31/Z33</f>
-        <v>15.003611781914891</v>
-      </c>
-      <c r="AA32" s="7">
-        <f t="shared" si="77"/>
-        <v>16.691402232712765</v>
-      </c>
-      <c r="AB32" s="7">
-        <f t="shared" si="77"/>
-        <v>18.47295830466755</v>
-      </c>
-      <c r="AC32" s="7">
-        <f t="shared" si="77"/>
-        <v>20.353062039823271</v>
-      </c>
-      <c r="AD32" s="7">
-        <f t="shared" si="77"/>
-        <v>22.336735519936003</v>
-      </c>
-      <c r="AE32" s="7">
-        <f t="shared" si="77"/>
-        <v>24.429252877835584</v>
-      </c>
-      <c r="AF32" s="7">
-        <f t="shared" si="77"/>
-        <v>26.636152909449173</v>
-      </c>
-      <c r="AG32" s="7">
-        <f t="shared" si="77"/>
-        <v>28.963252316520656</v>
-      </c>
-      <c r="AH32" s="7">
-        <f t="shared" si="77"/>
-        <v>31.416659611561702</v>
-      </c>
       <c r="AI32" s="7">
-        <f t="shared" si="77"/>
-        <v>34.00278971814695</v>
+        <f>AI31/AI33</f>
+        <v>10.522879858657243</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="77"/>
-        <v>36.72837930132156</v>
+        <f t="shared" ref="AJ32:AU32" si="80">AJ31/AJ33</f>
+        <v>17.539254416961128</v>
       </c>
       <c r="AK32" s="7">
-        <f t="shared" si="77"/>
-        <v>39.600502864627558</v>
-      </c>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+        <f t="shared" si="80"/>
+        <v>15.885039907243819</v>
+      </c>
+      <c r="AL32" s="7">
+        <f t="shared" si="80"/>
+        <v>17.610841455256192</v>
+      </c>
+      <c r="AM32" s="7">
+        <f t="shared" si="80"/>
+        <v>19.432248576195679</v>
+      </c>
+      <c r="AN32" s="7">
+        <f t="shared" si="80"/>
+        <v>21.35413470366391</v>
+      </c>
+      <c r="AO32" s="7">
+        <f t="shared" si="80"/>
+        <v>23.381617874492136</v>
+      </c>
+      <c r="AP32" s="7">
+        <f t="shared" si="80"/>
+        <v>25.52007296821823</v>
+      </c>
+      <c r="AQ32" s="7">
+        <f t="shared" si="80"/>
+        <v>27.775144558630625</v>
+      </c>
+      <c r="AR32" s="7">
+        <f t="shared" si="80"/>
+        <v>30.152760407983671</v>
+      </c>
+      <c r="AS32" s="7">
+        <f t="shared" si="80"/>
+        <v>32.659145636018572</v>
+      </c>
+      <c r="AT32" s="7">
+        <f t="shared" si="80"/>
+        <v>35.30083759753159</v>
+      </c>
+      <c r="AU32" s="7">
+        <f t="shared" si="80"/>
+        <v>38.08470150391738</v>
+      </c>
+    </row>
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
@@ -3819,85 +4660,112 @@
         <v>282</v>
       </c>
       <c r="O33">
-        <f>+N33</f>
+        <v>284</v>
+      </c>
+      <c r="P33">
         <v>282</v>
       </c>
-      <c r="P33">
-        <f>+O33</f>
-        <v>282</v>
-      </c>
       <c r="Q33">
-        <f>+P33</f>
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R33">
-        <f>+Q33</f>
-        <v>282</v>
-      </c>
-      <c r="W33" s="3">
+        <v>283</v>
+      </c>
+      <c r="S33">
+        <v>283</v>
+      </c>
+      <c r="T33">
+        <v>284</v>
+      </c>
+      <c r="U33">
+        <v>284</v>
+      </c>
+      <c r="V33">
+        <v>280</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>265</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>261</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>261</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>264</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>264</v>
+      </c>
+      <c r="AG33" s="3">
         <f>AVERAGE(G33:J33)</f>
         <v>272.75</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AH33" s="3">
         <f>AVERAGE(K33:N33)</f>
         <v>283</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="AI33" s="1">
         <f>AVERAGE(O33:R33)</f>
-        <v>282</v>
-      </c>
-      <c r="Z33">
-        <f>+Y33</f>
-        <v>282</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" ref="AA33:AK33" si="78">+Z33</f>
-        <v>282</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="78"/>
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="78"/>
-        <v>282</v>
+        <f>+AI33</f>
+        <v>283</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="78"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AK33:AU33" si="81">+AJ33</f>
+        <v>283</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="81"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="J35" s="8">
+        <f>J20/F20-1</f>
+        <v>0.41024229074889873</v>
       </c>
       <c r="K35" s="8">
         <f>K20/G20-1</f>
@@ -3916,166 +4784,314 @@
         <v>-5.7399453338539685E-2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" ref="O35:R35" si="79">O20/K20-1</f>
-        <v>0.14999999999999991</v>
+        <f t="shared" ref="O35:S35" si="82">O20/K20-1</f>
+        <v>0.29397110114598912</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999969</v>
+        <f t="shared" si="82"/>
+        <v>0.13767302656191549</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="82"/>
+        <v>6.8536931818181879E-2</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="X35" s="8">
-        <f>+X20/W20-1</f>
+        <f t="shared" si="82"/>
+        <v>0.12344656172328095</v>
+      </c>
+      <c r="S35" s="8">
+        <f t="shared" si="82"/>
+        <v>0.14670773969965345</v>
+      </c>
+      <c r="T35" s="8">
+        <f t="shared" ref="T35:V35" si="83">T20/P20-1</f>
+        <v>0.11344952318316337</v>
+      </c>
+      <c r="U35" s="8">
+        <f t="shared" si="83"/>
+        <v>0.11947490860751087</v>
+      </c>
+      <c r="V35" s="8">
+        <f t="shared" si="83"/>
+        <v>0.17404129793510315</v>
+      </c>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AC35" s="8">
+        <f>+AC20/AB20-1</f>
+        <v>0.10289731572219862</v>
+      </c>
+      <c r="AD35" s="8">
+        <f>+AD20/AC20-1</f>
+        <v>0.16380142939926601</v>
+      </c>
+      <c r="AE35" s="8">
+        <f>+AE20/AD20-1</f>
+        <v>0.12597510373443987</v>
+      </c>
+      <c r="AF35" s="8">
+        <f>+AF20/AE20-1</f>
+        <v>0.13192806603773577</v>
+      </c>
+      <c r="AG35" s="8">
+        <f>+AG20/AF20-1</f>
+        <v>0.25446021617398107</v>
+      </c>
+      <c r="AH35" s="8">
+        <f>+AH20/AG20-1</f>
         <v>0.32108377452507009</v>
       </c>
-    </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI35" s="8">
+        <f>+AI20/AH20-1</f>
+        <v>0.1199905704856199</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f>+AJ20/AI20-1</f>
+        <v>0.1425664772328632</v>
+      </c>
+      <c r="AK35" s="8">
+        <f>+AK20/AJ20-1</f>
+        <v>-3.5067086275713644E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8">
-        <f>G22/G20</f>
+        <f t="shared" ref="G37:N37" si="84">G22/G20</f>
         <v>0.8117913832199547</v>
       </c>
       <c r="H37" s="8">
-        <f>H22/H20</f>
+        <f t="shared" si="84"/>
         <v>0.77601522842639592</v>
       </c>
       <c r="I37" s="8">
-        <f>I22/I20</f>
+        <f t="shared" si="84"/>
         <v>0.86077162712676736</v>
       </c>
       <c r="J37" s="8">
-        <f>J22/J20</f>
+        <f t="shared" si="84"/>
         <v>0.82428738773916443</v>
       </c>
       <c r="K37" s="8">
-        <f>K22/K20</f>
+        <f t="shared" si="84"/>
         <v>0.79970104633781769</v>
       </c>
       <c r="L37" s="8">
-        <f>L22/L20</f>
+        <f t="shared" si="84"/>
         <v>0.80433969322858212</v>
       </c>
       <c r="M37" s="8">
-        <f>M22/M20</f>
+        <f t="shared" si="84"/>
         <v>0.86115056818181823</v>
       </c>
       <c r="N37" s="8">
-        <f>N22/N20</f>
+        <f t="shared" si="84"/>
         <v>0.76843413421706708</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" ref="O37:R37" si="80">O22/O20</f>
-        <v>0.78</v>
+        <f t="shared" ref="O37:S37" si="85">O22/O20</f>
+        <v>0.75548710050057755</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="80"/>
-        <v>0.78</v>
+        <f t="shared" si="85"/>
+        <v>0.75928970733311407</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="80"/>
-        <v>0.78</v>
+        <f t="shared" si="85"/>
+        <v>0.84363575938850122</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="80"/>
-        <v>0.78000000000000014</v>
-      </c>
-      <c r="W37" s="8">
-        <f>W22/W20</f>
+        <f t="shared" si="85"/>
+        <v>0.75221238938053092</v>
+      </c>
+      <c r="S37" s="8">
+        <f t="shared" si="85"/>
+        <v>0.7575554063129617</v>
+      </c>
+      <c r="T37" s="8">
+        <f t="shared" ref="T37" si="86">T22/T20</f>
+        <v>0.75812167749557002</v>
+      </c>
+      <c r="U37" s="8">
+        <f t="shared" ref="U37:V37" si="87">U22/U20</f>
+        <v>0.8469645242689624</v>
+      </c>
+      <c r="V37" s="8">
+        <f t="shared" si="87"/>
+        <v>0.76538944723618085</v>
+      </c>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AB37" s="8">
+        <f>AB22/AB20</f>
+        <v>0.84448231785257777</v>
+      </c>
+      <c r="AC37" s="8">
+        <f>AC22/AC20</f>
+        <v>0.84604983581224646</v>
+      </c>
+      <c r="AD37" s="8">
+        <f>AD22/AD20</f>
+        <v>0.84016597510373447</v>
+      </c>
+      <c r="AE37" s="8">
+        <f>AE22/AE20</f>
+        <v>0.82797759433962259</v>
+      </c>
+      <c r="AF37" s="8">
+        <f>AF22/AF20</f>
+        <v>0.82992577158484182</v>
+      </c>
+      <c r="AG37" s="8">
+        <f>AG22/AG20</f>
         <v>0.83047856327208558</v>
       </c>
-      <c r="X37" s="8">
-        <f>X22/X20</f>
+      <c r="AH37" s="8">
+        <f>AH22/AH20</f>
         <v>0.82193933679082198</v>
       </c>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI37" s="8">
+        <f>AI22/AI20</f>
+        <v>0.79092120956991507</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f>AJ22/AJ20</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
-        <f>G27/G20</f>
+        <f t="shared" ref="G38:N38" si="88">G27/G20</f>
         <v>0.16477702191987906</v>
       </c>
       <c r="H38" s="8">
-        <f>H27/H20</f>
+        <f t="shared" si="88"/>
         <v>1.5862944162436547E-2</v>
       </c>
       <c r="I38" s="8">
-        <f>I27/I20</f>
+        <f t="shared" si="88"/>
         <v>0.47495806374311045</v>
       </c>
       <c r="J38" s="8">
-        <f>J27/J20</f>
+        <f t="shared" si="88"/>
         <v>0.18391253416634126</v>
       </c>
       <c r="K38" s="8">
-        <f>K27/K20</f>
+        <f t="shared" si="88"/>
         <v>0.1310413552566019</v>
       </c>
       <c r="L38" s="8">
-        <f>L27/L20</f>
+        <f t="shared" si="88"/>
         <v>8.1930415263748599E-2</v>
       </c>
       <c r="M38" s="8">
-        <f>M27/M20</f>
+        <f t="shared" si="88"/>
         <v>0.45419034090909088</v>
       </c>
       <c r="N38" s="8">
-        <f>N27/N20</f>
+        <f t="shared" si="88"/>
         <v>3.6039768019884011E-2</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" ref="O38:R38" si="81">O27/O20</f>
-        <v>0.1694846298823682</v>
+        <f t="shared" ref="O38:S38" si="89">O27/O20</f>
+        <v>9.1644204851752023E-2</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="81"/>
-        <v>0.12040892011906495</v>
+        <f t="shared" si="89"/>
+        <v>0.14205853337717855</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="81"/>
-        <v>0.40842761857707499</v>
+        <f t="shared" si="89"/>
+        <v>0.48820206048521103</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="81"/>
-        <v>0.11129210042865895</v>
-      </c>
-      <c r="W38" s="8">
-        <f>W27/W20</f>
+        <f t="shared" si="89"/>
+        <v>6.6002949852507375E-2</v>
+      </c>
+      <c r="S38" s="8">
+        <f t="shared" si="89"/>
+        <v>0.15614506380120888</v>
+      </c>
+      <c r="T38" s="8">
+        <f t="shared" ref="T38" si="90">T27/T20</f>
+        <v>0.15505020673360898</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" ref="U38:V38" si="91">U27/U20</f>
+        <v>0.48404334273415467</v>
+      </c>
+      <c r="V38" s="8">
+        <f t="shared" si="91"/>
+        <v>7.2550251256281409E-2</v>
+      </c>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AB38" s="8">
+        <f>AB27/AB20</f>
+        <v>0.27183638687686407</v>
+      </c>
+      <c r="AC38" s="8">
+        <f>AC27/AC20</f>
+        <v>0.27216534672590303</v>
+      </c>
+      <c r="AD38" s="8">
+        <f>AD27/AD20</f>
+        <v>0.2624066390041494</v>
+      </c>
+      <c r="AE38" s="8">
+        <f>AE27/AE20</f>
+        <v>0.27417452830188677</v>
+      </c>
+      <c r="AF38" s="8">
+        <f>AF27/AF20</f>
+        <v>0.29352780309936188</v>
+      </c>
+      <c r="AG38" s="8">
+        <f>AG27/AG20</f>
         <v>0.27987127582269283</v>
       </c>
-      <c r="X38" s="8">
-        <f>X27/X20</f>
+      <c r="AH38" s="8">
+        <f>AH27/AH20</f>
         <v>0.24571742888574571</v>
       </c>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI38" s="8">
+        <f>AI27/AI20</f>
+        <v>0.2576299726373395</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f>AJ27/AJ20</f>
+        <v>0.35858397298127104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M40" s="3">
         <f>M41-M58</f>
@@ -4085,8 +5101,24 @@
         <f>N41-N58</f>
         <v>-3026</v>
       </c>
-    </row>
-    <row r="41" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="2">
+        <f>+S41-S58</f>
+        <v>-3501</v>
+      </c>
+      <c r="T40" s="2">
+        <f>+T41-T58</f>
+        <v>-4333</v>
+      </c>
+      <c r="U40" s="2">
+        <f>+U41-U58</f>
+        <v>-1145</v>
+      </c>
+      <c r="V40" s="2">
+        <f>+V41-V58</f>
+        <v>-1833</v>
+      </c>
+    </row>
+    <row r="41" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
@@ -4108,14 +5140,30 @@
         <f>2796+485+509+98</f>
         <v>3888</v>
       </c>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="2">
+        <f>1734+537+107</f>
+        <v>2378</v>
+      </c>
+      <c r="T41" s="2">
+        <f>1474+15+128</f>
+        <v>1617</v>
+      </c>
+      <c r="U41" s="2">
+        <f>4215+463+129</f>
+        <v>4807</v>
+      </c>
+      <c r="V41" s="2">
+        <f>3609+465+131</f>
+        <v>4205</v>
+      </c>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+    </row>
+    <row r="42" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4133,14 +5181,26 @@
       <c r="N42" s="3">
         <v>446</v>
       </c>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="2">
+        <v>372</v>
+      </c>
+      <c r="T42" s="2">
+        <v>928</v>
+      </c>
+      <c r="U42" s="2">
+        <v>790</v>
+      </c>
+      <c r="V42" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+    </row>
+    <row r="43" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4160,14 +5220,30 @@
         <f>93+11</f>
         <v>104</v>
       </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="2">
+        <f>214+17</f>
+        <v>231</v>
+      </c>
+      <c r="T43" s="2">
+        <f>126+383</f>
+        <v>509</v>
+      </c>
+      <c r="U43" s="2">
+        <f>4+512</f>
+        <v>516</v>
+      </c>
+      <c r="V43" s="2">
+        <f>78+541</f>
+        <v>619</v>
+      </c>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+    </row>
+    <row r="44" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4185,14 +5261,26 @@
       <c r="N44" s="3">
         <v>287</v>
       </c>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="2">
+        <v>388</v>
+      </c>
+      <c r="T44" s="2">
+        <v>345</v>
+      </c>
+      <c r="U44" s="2">
+        <v>337</v>
+      </c>
+      <c r="V44" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+    </row>
+    <row r="45" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4210,14 +5298,26 @@
       <c r="N45" s="3">
         <v>431</v>
       </c>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="2">
+        <v>2525</v>
+      </c>
+      <c r="T45" s="2">
+        <v>3390</v>
+      </c>
+      <c r="U45" s="2">
+        <v>2722</v>
+      </c>
+      <c r="V45" s="2">
+        <v>3921</v>
+      </c>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+    </row>
+    <row r="46" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4235,14 +5335,26 @@
       <c r="N46" s="3">
         <v>888</v>
       </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="2">
+        <v>1013</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1049</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1032</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1009</v>
+      </c>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+    </row>
+    <row r="47" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4260,14 +5372,26 @@
       <c r="N47" s="3">
         <v>549</v>
       </c>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S47" s="2">
+        <v>457</v>
+      </c>
+      <c r="T47" s="2">
+        <v>444</v>
+      </c>
+      <c r="U47" s="2">
+        <v>428</v>
+      </c>
+      <c r="V47" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+    </row>
+    <row r="48" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4287,14 +5411,30 @@
         <f>13736+7061</f>
         <v>20797</v>
       </c>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="2">
+        <f>6261+13776</f>
+        <v>20037</v>
+      </c>
+      <c r="T48" s="2">
+        <f>13779+6104</f>
+        <v>19883</v>
+      </c>
+      <c r="U48" s="2">
+        <f>13778+5950</f>
+        <v>19728</v>
+      </c>
+      <c r="V48" s="2">
+        <f>13844+5820+698</f>
+        <v>20362</v>
+      </c>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+    </row>
+    <row r="49" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4312,14 +5452,30 @@
       <c r="N49" s="3">
         <v>344</v>
       </c>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="2">
+        <f>429+649+9</f>
+        <v>1087</v>
+      </c>
+      <c r="T49" s="2">
+        <f>501+1001+21</f>
+        <v>1523</v>
+      </c>
+      <c r="U49" s="2">
+        <f>495+698+7</f>
+        <v>1200</v>
+      </c>
+      <c r="V49" s="2">
+        <f>779+3</f>
+        <v>782</v>
+      </c>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+    </row>
+    <row r="50" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4339,12 +5495,28 @@
         <f>SUM(N41:N49)</f>
         <v>27734</v>
       </c>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="2">
+        <f>SUM(S41:S49)</f>
+        <v>28488</v>
+      </c>
+      <c r="T50" s="2">
+        <f>SUM(T41:T49)</f>
+        <v>29688</v>
+      </c>
+      <c r="U50" s="2">
+        <f>SUM(U41:U49)</f>
+        <v>31560</v>
+      </c>
+      <c r="V50" s="2">
+        <f>SUM(V41:V49)</f>
+        <v>32132</v>
+      </c>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+    </row>
+    <row r="51" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4357,14 +5529,14 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+    </row>
+    <row r="52" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4382,14 +5554,26 @@
       <c r="N52" s="3">
         <v>737</v>
       </c>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="2">
+        <v>630</v>
+      </c>
+      <c r="T52" s="2">
+        <v>789</v>
+      </c>
+      <c r="U52" s="2">
+        <v>886</v>
+      </c>
+      <c r="V52" s="2">
+        <v>721</v>
+      </c>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+    </row>
+    <row r="53" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4407,14 +5591,26 @@
       <c r="N53" s="3">
         <v>576</v>
       </c>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S53" s="2">
+        <v>439</v>
+      </c>
+      <c r="T53" s="2">
+        <v>547</v>
+      </c>
+      <c r="U53" s="2">
+        <v>689</v>
+      </c>
+      <c r="V53" s="2">
+        <v>921</v>
+      </c>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+    </row>
+    <row r="54" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4432,14 +5628,26 @@
       <c r="N54" s="3">
         <v>808</v>
       </c>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="2">
+        <v>763</v>
+      </c>
+      <c r="T54" s="2">
+        <v>887</v>
+      </c>
+      <c r="U54" s="2">
+        <v>843</v>
+      </c>
+      <c r="V54" s="2">
+        <v>872</v>
+      </c>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+    </row>
+    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4458,14 +5666,29 @@
       <c r="N55" s="3">
         <v>619</v>
       </c>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="2">
+        <f>133+3</f>
+        <v>136</v>
+      </c>
+      <c r="T55" s="2">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="U55" s="2">
+        <f>437+3</f>
+        <v>440</v>
+      </c>
+      <c r="V55" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+    </row>
+    <row r="56" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4483,14 +5706,26 @@
       <c r="N56" s="3">
         <v>579</v>
       </c>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="2">
+        <v>506</v>
+      </c>
+      <c r="T56" s="2">
+        <v>602</v>
+      </c>
+      <c r="U56" s="2">
+        <v>586</v>
+      </c>
+      <c r="V56" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+    </row>
+    <row r="57" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4508,12 +5743,24 @@
       <c r="N57" s="3">
         <v>431</v>
       </c>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S57" s="2">
+        <v>2525</v>
+      </c>
+      <c r="T57" s="2">
+        <v>3390</v>
+      </c>
+      <c r="U57" s="2">
+        <v>2722</v>
+      </c>
+      <c r="V57" s="2">
+        <v>3921</v>
+      </c>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+    </row>
+    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
@@ -4534,14 +5781,27 @@
         <f>499+6415</f>
         <v>6914</v>
       </c>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S58" s="2">
+        <v>5879</v>
+      </c>
+      <c r="T58" s="2">
+        <v>5950</v>
+      </c>
+      <c r="U58" s="2">
+        <v>5952</v>
+      </c>
+      <c r="V58" s="2">
+        <f>5539+499</f>
+        <v>6038</v>
+      </c>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+    </row>
+    <row r="59" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4559,14 +5819,26 @@
       <c r="N59" s="3">
         <v>542</v>
       </c>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S59" s="2">
+        <v>474</v>
+      </c>
+      <c r="T59" s="2">
+        <v>473</v>
+      </c>
+      <c r="U59" s="2">
+        <v>468</v>
+      </c>
+      <c r="V59" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+    </row>
+    <row r="60" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4584,14 +5856,26 @@
       <c r="N60" s="3">
         <v>87</v>
       </c>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S60" s="2">
+        <v>144</v>
+      </c>
+      <c r="T60" s="2">
+        <v>138</v>
+      </c>
+      <c r="U60" s="2">
+        <v>217</v>
+      </c>
+      <c r="V60" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+    </row>
+    <row r="61" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4609,14 +5893,26 @@
       <c r="N61" s="3">
         <v>16441</v>
       </c>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S61" s="2">
+        <v>16992</v>
+      </c>
+      <c r="T61" s="2">
+        <v>16908</v>
+      </c>
+      <c r="U61" s="2">
+        <v>18757</v>
+      </c>
+      <c r="V61" s="2">
+        <v>18436</v>
+      </c>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+    </row>
+    <row r="62" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4636,10 +5932,726 @@
         <f>SUM(N52:N61)</f>
         <v>27734</v>
       </c>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
+      <c r="S62" s="2">
+        <f>SUM(S52:S61)</f>
+        <v>28488</v>
+      </c>
+      <c r="T62" s="2">
+        <f>SUM(T52:T61)</f>
+        <v>29688</v>
+      </c>
+      <c r="U62" s="2">
+        <f>SUM(U52:U61)</f>
+        <v>31560</v>
+      </c>
+      <c r="V62" s="2">
+        <f>SUM(V52:V61)</f>
+        <v>32132</v>
+      </c>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" ref="S64:V64" si="92">+S31</f>
+        <v>399</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" si="92"/>
+        <v>509</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" si="92"/>
+        <v>2545</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" si="92"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S65" s="2">
+        <v>241</v>
+      </c>
+      <c r="T65" s="2">
+        <f>594-S65</f>
+        <v>353</v>
+      </c>
+      <c r="U65" s="2">
+        <f>2983-T65-S65</f>
+        <v>2389</v>
+      </c>
+      <c r="V65" s="2">
+        <f>2963-U65-T65-S65</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S66" s="2">
+        <v>33</v>
+      </c>
+      <c r="T66" s="2">
+        <f>69-S66</f>
+        <v>36</v>
+      </c>
+      <c r="U66" s="2">
+        <f>111-T66-S66</f>
+        <v>42</v>
+      </c>
+      <c r="V66" s="2">
+        <f>159-U66-T66-S66</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S67" s="2">
+        <v>158</v>
+      </c>
+      <c r="T67" s="2">
+        <f>314-S67</f>
+        <v>156</v>
+      </c>
+      <c r="U67" s="2">
+        <f>470-T67-S67</f>
+        <v>156</v>
+      </c>
+      <c r="V67" s="2">
+        <f>630-U67-T67-S67</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="2">
+        <v>22</v>
+      </c>
+      <c r="T68" s="2">
+        <f>43-S68</f>
+        <v>21</v>
+      </c>
+      <c r="U68" s="2">
+        <f>63-T68-S68</f>
+        <v>20</v>
+      </c>
+      <c r="V68" s="2">
+        <f>81-U68-T68-S68</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S69" s="2">
+        <v>495</v>
+      </c>
+      <c r="T69" s="2">
+        <f>970-S69</f>
+        <v>475</v>
+      </c>
+      <c r="U69" s="2">
+        <f>1421-T69-S69</f>
+        <v>451</v>
+      </c>
+      <c r="V69" s="2">
+        <f>1940-U69-T69-S69</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S70" s="2">
+        <v>-126</v>
+      </c>
+      <c r="T70" s="2">
+        <f>-310-S70</f>
+        <v>-184</v>
+      </c>
+      <c r="U70" s="2">
+        <f>-361-T70-S70</f>
+        <v>-51</v>
+      </c>
+      <c r="V70" s="2">
+        <f>-554-U70-T70-S70</f>
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="71" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S71" s="2">
+        <v>28</v>
+      </c>
+      <c r="T71" s="2">
+        <f>55-S71</f>
+        <v>27</v>
+      </c>
+      <c r="U71" s="2">
+        <f>69-T71-S71</f>
+        <v>14</v>
+      </c>
+      <c r="V71" s="2">
+        <f>92-U71-T71-S71</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S72" s="2">
+        <v>-44</v>
+      </c>
+      <c r="T72" s="2">
+        <f>-96-S72</f>
+        <v>-52</v>
+      </c>
+      <c r="U72" s="2">
+        <f>-96-T72-S72</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="2">
+        <f>-96-U72-T72-S72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S73" s="2">
+        <v>35</v>
+      </c>
+      <c r="T73" s="2">
+        <f>76-S73</f>
+        <v>41</v>
+      </c>
+      <c r="U73" s="2">
+        <f>98-T73-S73</f>
+        <v>22</v>
+      </c>
+      <c r="V73" s="2">
+        <f>98-U73-T73-S73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S74" s="2">
+        <v>-939</v>
+      </c>
+      <c r="T74" s="2">
+        <f>-1199-S74</f>
+        <v>-260</v>
+      </c>
+      <c r="U74" s="2">
+        <f>-291-T74-S74</f>
+        <v>908</v>
+      </c>
+      <c r="V74" s="2">
+        <f>-429-U74-T74-S74</f>
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="75" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" ref="S75:V75" si="93">SUM(S65:S74)</f>
+        <v>-97</v>
+      </c>
+      <c r="T75" s="2">
+        <f t="shared" si="93"/>
+        <v>613</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" si="93"/>
+        <v>3951</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="93"/>
+        <v>417</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>1460</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>1599</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>2112</v>
+      </c>
+      <c r="AE75" s="2">
+        <v>2324</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>2414</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>3250</v>
+      </c>
+      <c r="AH75" s="3">
+        <v>3889</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>5046</v>
+      </c>
+      <c r="AJ75" s="2">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="2"/>
+    </row>
+    <row r="77" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S77">
+        <f t="shared" ref="S77:V77" si="94">-92+94+301-377+358</f>
+        <v>284</v>
+      </c>
+      <c r="T77">
+        <f>-92+490+456-S77</f>
+        <v>570</v>
+      </c>
+      <c r="U77">
+        <f>-564+491+489-1926+101+1688-T77-S77</f>
+        <v>-575</v>
+      </c>
+      <c r="V77">
+        <f>-780+526+676-2538+234+2068-U77-T77-S77</f>
+        <v>-93</v>
+      </c>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="2"/>
+    </row>
+    <row r="78" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S78">
+        <v>-84</v>
+      </c>
+      <c r="T78">
+        <f>-147-S78</f>
+        <v>-63</v>
+      </c>
+      <c r="U78">
+        <f>-208-T78-S78</f>
+        <v>-61</v>
+      </c>
+      <c r="V78">
+        <f>-191-59-U78-T78-S78</f>
+        <v>-42</v>
+      </c>
+      <c r="AB78">
+        <v>416</v>
+      </c>
+      <c r="AC78">
+        <v>102</v>
+      </c>
+      <c r="AD78">
+        <v>38</v>
+      </c>
+      <c r="AE78">
+        <v>76</v>
+      </c>
+      <c r="AF78" s="3">
+        <v>59</v>
+      </c>
+      <c r="AG78" s="3">
+        <v>53</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>157</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>210</v>
+      </c>
+      <c r="AJ78" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <f>-32-S79+709-1140</f>
+        <v>-473</v>
+      </c>
+      <c r="U79">
+        <f>-46-T79-S79</f>
+        <v>417</v>
+      </c>
+      <c r="V79">
+        <f>-80-U79-T79-S79</f>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f>-83-U80-T80-S80</f>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="81" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="S81">
+        <f>SUM(S77:S80)</f>
+        <v>210</v>
+      </c>
+      <c r="T81">
+        <f>SUM(T77:T80)</f>
+        <v>34</v>
+      </c>
+      <c r="U81">
+        <f>SUM(U77:U80)</f>
+        <v>-219</v>
+      </c>
+      <c r="V81">
+        <f>SUM(V77:V80)</f>
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="83" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" ref="S83:V83" si="95">3956-4200</f>
+        <v>-244</v>
+      </c>
+      <c r="T83" s="2">
+        <f>3956-4200-S83-25+95</f>
+        <v>70</v>
+      </c>
+      <c r="U83" s="2">
+        <f>3956-4200+95-25-T83-S83</f>
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <f>3956-4200+180-25-U83-T83-S83</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" ref="S84:V84" si="96">92-212</f>
+        <v>-120</v>
+      </c>
+      <c r="T84" s="2">
+        <f>-430+169-S84</f>
+        <v>-141</v>
+      </c>
+      <c r="U84" s="2">
+        <f>226-T84-S84-632</f>
+        <v>-145</v>
+      </c>
+      <c r="V84" s="2">
+        <f>-1002+282-U84-T84-S84</f>
+        <v>-314</v>
+      </c>
+    </row>
+    <row r="85" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S85" s="2">
+        <v>-584</v>
+      </c>
+      <c r="T85" s="2">
+        <f>-1135-S85</f>
+        <v>-551</v>
+      </c>
+      <c r="U85" s="2">
+        <f>-1707-T85-S85</f>
+        <v>-572</v>
+      </c>
+      <c r="V85" s="2">
+        <f>-1988-U85-T85-S85</f>
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="86" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S86" s="2">
+        <v>-260</v>
+      </c>
+      <c r="T86" s="2">
+        <f>-516-S86</f>
+        <v>-256</v>
+      </c>
+      <c r="U86" s="2">
+        <f>-773-T86-S86</f>
+        <v>-257</v>
+      </c>
+      <c r="V86" s="2">
+        <f>-1034-U86-T86-S86</f>
+        <v>-261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S87" s="2">
+        <v>2040</v>
+      </c>
+      <c r="T87" s="2">
+        <f>2921-S87</f>
+        <v>881</v>
+      </c>
+      <c r="U87" s="2">
+        <f>2212-T87-S87</f>
+        <v>-709</v>
+      </c>
+      <c r="V87" s="2">
+        <f>3436-U87-T87-S87</f>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S88" s="2">
+        <v>17</v>
+      </c>
+      <c r="T88" s="2">
+        <f>-2-S88</f>
+        <v>-19</v>
+      </c>
+      <c r="U88" s="2">
+        <f>-3-T88-S88</f>
+        <v>-1</v>
+      </c>
+      <c r="V88" s="2">
+        <f>-2-U88-T88-S88</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="S89" s="2">
+        <f t="shared" ref="S89:V89" si="97">SUM(S83:S88)</f>
+        <v>849</v>
+      </c>
+      <c r="T89" s="2">
+        <f t="shared" si="97"/>
+        <v>-16</v>
+      </c>
+      <c r="U89" s="2">
+        <f t="shared" si="97"/>
+        <v>-1684</v>
+      </c>
+      <c r="V89" s="2">
+        <f t="shared" si="97"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S90" s="2">
+        <v>-17</v>
+      </c>
+      <c r="T90" s="2">
+        <f>-4-S90</f>
+        <v>13</v>
+      </c>
+      <c r="U90" s="2">
+        <f>-12-T90-S90</f>
+        <v>-8</v>
+      </c>
+      <c r="V90" s="2">
+        <f>-13-U90-T90-S90</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" ref="S91:V91" si="98">+S89+S81+S75+S90</f>
+        <v>945</v>
+      </c>
+      <c r="T91" s="2">
+        <f t="shared" si="98"/>
+        <v>644</v>
+      </c>
+      <c r="U91" s="2">
+        <f t="shared" si="98"/>
+        <v>2040</v>
+      </c>
+      <c r="V91" s="2">
+        <f t="shared" si="98"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" ref="S93:V93" si="99">+S75+S78</f>
+        <v>-181</v>
+      </c>
+      <c r="T93" s="2">
+        <f t="shared" si="99"/>
+        <v>550</v>
+      </c>
+      <c r="U93" s="2">
+        <f t="shared" si="99"/>
+        <v>3890</v>
+      </c>
+      <c r="V93" s="2">
+        <f>+V75+V78</f>
+        <v>375</v>
+      </c>
+      <c r="AB93" s="2">
+        <f t="shared" ref="AB93:AD93" si="100">+AB75-AB78</f>
+        <v>1044</v>
+      </c>
+      <c r="AC93" s="2">
+        <f t="shared" si="100"/>
+        <v>1497</v>
+      </c>
+      <c r="AD93" s="2">
+        <f t="shared" ref="AD93:AJ93" si="101">+AD75-AD78</f>
+        <v>2074</v>
+      </c>
+      <c r="AE93" s="2">
+        <f t="shared" si="101"/>
+        <v>2248</v>
+      </c>
+      <c r="AF93" s="2">
+        <f t="shared" si="101"/>
+        <v>2355</v>
+      </c>
+      <c r="AG93" s="2">
+        <f t="shared" si="101"/>
+        <v>3197</v>
+      </c>
+      <c r="AH93" s="2">
+        <f t="shared" si="101"/>
+        <v>3732</v>
+      </c>
+      <c r="AI93" s="2">
+        <f t="shared" si="101"/>
+        <v>4836</v>
+      </c>
+      <c r="AJ93" s="2">
+        <f>+AJ75-AJ78</f>
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="94" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="AB94" s="12">
+        <f t="shared" ref="AB94:AC94" si="102">+AB93/AB20</f>
+        <v>0.22241158926288879</v>
+      </c>
+      <c r="AC94" s="12">
+        <f t="shared" si="102"/>
+        <v>0.28916360826733628</v>
+      </c>
+      <c r="AD94" s="12">
+        <f>+AD93/AD20</f>
+        <v>0.3442323651452282</v>
+      </c>
+      <c r="AE94" s="12">
+        <f>+AE93/AE20</f>
+        <v>0.33136792452830188</v>
+      </c>
+      <c r="AF94" s="12">
+        <f>+AF93/AF20</f>
+        <v>0.30668055736424016</v>
+      </c>
+      <c r="AG94" s="12">
+        <f>+AG93/AG20</f>
+        <v>0.33187999584760719</v>
+      </c>
+      <c r="AH94" s="12">
+        <f>+AH93/AH20</f>
+        <v>0.29325789721829326</v>
+      </c>
+      <c r="AI94" s="12">
+        <f>+AI93/AI20</f>
+        <v>0.33929699010734582</v>
+      </c>
+      <c r="AJ94" s="12">
+        <f>+AJ93/AJ20</f>
+        <v>0.2881793061099171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ96" s="2">
+        <v>18800</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
